--- a/data/strategies/渤海场内策略结果.xlsx
+++ b/data/strategies/渤海场内策略结果.xlsx
@@ -18,23 +18,23 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="197">
+  <si>
+    <t>易方达中证生物科技主题ETF</t>
+  </si>
+  <si>
+    <t>南方中证全指房地产ETF</t>
+  </si>
+  <si>
+    <t>国泰中证军工ETF</t>
+  </si>
   <si>
     <t>50ETF 红利低波动ETF</t>
   </si>
   <si>
-    <t>南方中证全指房地产ETF</t>
-  </si>
-  <si>
-    <t>易方达中证生物科技主题ETF</t>
-  </si>
-  <si>
     <t>平安中证新能源汽车产业ETF</t>
   </si>
   <si>
-    <t>国泰中证军工ETF</t>
-  </si>
-  <si>
     <t>“防御”+“国内大循环”</t>
   </si>
   <si>
@@ -65,73 +65,70 @@
     <t>年化波动率-2020/12/31至今</t>
   </si>
   <si>
-    <t>2.33%</t>
-  </si>
-  <si>
-    <t>2.14%</t>
-  </si>
-  <si>
-    <t>-1.62%</t>
-  </si>
-  <si>
-    <t>17.92%</t>
-  </si>
-  <si>
-    <t>11.17%</t>
-  </si>
-  <si>
-    <t>6.55%</t>
-  </si>
-  <si>
-    <t>7.46%</t>
-  </si>
-  <si>
-    <t>7.25%</t>
-  </si>
-  <si>
-    <t>0.78%</t>
-  </si>
-  <si>
-    <t>16.80%</t>
-  </si>
-  <si>
-    <t>10.97%</t>
-  </si>
-  <si>
-    <t>11.64%</t>
-  </si>
-  <si>
-    <t>16.08%</t>
-  </si>
-  <si>
-    <t>10.61%</t>
-  </si>
-  <si>
-    <t>15.64%</t>
-  </si>
-  <si>
-    <t>20.95%</t>
-  </si>
-  <si>
-    <t>15.72%</t>
-  </si>
-  <si>
-    <t>20.87%</t>
+    <t>2.79%</t>
+  </si>
+  <si>
+    <t>1.67%</t>
+  </si>
+  <si>
+    <t>-3.19%</t>
+  </si>
+  <si>
+    <t>12.46%</t>
+  </si>
+  <si>
+    <t>7.19%</t>
+  </si>
+  <si>
+    <t>-0.67%</t>
+  </si>
+  <si>
+    <t>4.99%</t>
+  </si>
+  <si>
+    <t>6.87%</t>
+  </si>
+  <si>
+    <t>-2.72%</t>
+  </si>
+  <si>
+    <t>18.81%</t>
+  </si>
+  <si>
+    <t>12.78%</t>
+  </si>
+  <si>
+    <t>15.76%</t>
+  </si>
+  <si>
+    <t>16.18%</t>
+  </si>
+  <si>
+    <t>11.19%</t>
+  </si>
+  <si>
+    <t>16.01%</t>
+  </si>
+  <si>
+    <t>20.97%</t>
+  </si>
+  <si>
+    <t>15.54%</t>
+  </si>
+  <si>
+    <t>20.71%</t>
   </si>
   <si>
     <t>场内权重</t>
   </si>
   <si>
-    <t>市盈率PE_TTM</t>
-  </si>
-  <si>
-    <t>市净率PB</t>
-  </si>
-  <si>
-    <t>营业收入同比增长率（%）</t>
-  </si>
-  <si>
-    <t>归母净利润同比增长率（%）</t>
+    <t>PB(LY)</t>
+  </si>
+  <si>
+    <t>PE(TTM)</t>
+  </si>
+  <si>
+    <t>归母净利润同比增长率</t>
   </si>
   <si>
     <t>场内基金</t>
@@ -140,109 +137,109 @@
     <t>场内代码</t>
   </si>
   <si>
+    <t>159837.OF</t>
+  </si>
+  <si>
+    <t>512200.OF</t>
+  </si>
+  <si>
+    <t>512660.OF</t>
+  </si>
+  <si>
     <t>512890.OF</t>
   </si>
   <si>
-    <t>512200.OF</t>
-  </si>
-  <si>
-    <t>159837.OF</t>
-  </si>
-  <si>
     <t>515700.OF</t>
   </si>
   <si>
-    <t>512660.OF</t>
-  </si>
-  <si>
-    <t>0.23%</t>
-  </si>
-  <si>
-    <t>-5.72%</t>
-  </si>
-  <si>
-    <t>-0.78%</t>
-  </si>
-  <si>
-    <t>17.16%</t>
-  </si>
-  <si>
-    <t>4.76%</t>
-  </si>
-  <si>
-    <t>9.29%</t>
-  </si>
-  <si>
-    <t>-3.11%</t>
-  </si>
-  <si>
-    <t>23.40%</t>
-  </si>
-  <si>
-    <t>47.36%</t>
-  </si>
-  <si>
-    <t>12.76%</t>
+    <t>-5.14%</t>
+  </si>
+  <si>
+    <t>-4.36%</t>
+  </si>
+  <si>
+    <t>-0.31%</t>
+  </si>
+  <si>
+    <t>-2.81%</t>
+  </si>
+  <si>
+    <t>27.72%</t>
+  </si>
+  <si>
+    <t>7.39%</t>
+  </si>
+  <si>
+    <t>-6.46%</t>
+  </si>
+  <si>
+    <t>7.93%</t>
+  </si>
+  <si>
+    <t>3.57%</t>
+  </si>
+  <si>
+    <t>57.99%</t>
+  </si>
+  <si>
+    <t>3.77%</t>
+  </si>
+  <si>
+    <t>-6.90%</t>
+  </si>
+  <si>
+    <t>-10.93%</t>
+  </si>
+  <si>
+    <t>11.33%</t>
+  </si>
+  <si>
+    <t>43.99%</t>
+  </si>
+  <si>
+    <t>31.97%</t>
   </si>
   <si>
     <t>14.45%</t>
   </si>
   <si>
-    <t>-5.56%</t>
-  </si>
-  <si>
-    <t>11.25%</t>
-  </si>
-  <si>
-    <t>23.56%</t>
-  </si>
-  <si>
-    <t>-10.02%</t>
-  </si>
-  <si>
-    <t>7.83%</t>
-  </si>
-  <si>
-    <t>9.64%</t>
-  </si>
-  <si>
-    <t>25.37%</t>
-  </si>
-  <si>
-    <t>41.84%</t>
-  </si>
-  <si>
-    <t>26.92%</t>
-  </si>
-  <si>
-    <t>10.28%</t>
-  </si>
-  <si>
-    <t>11.73%</t>
-  </si>
-  <si>
-    <t>27.95%</t>
-  </si>
-  <si>
-    <t>37.04%</t>
-  </si>
-  <si>
-    <t>26.07%</t>
-  </si>
-  <si>
-    <t>13.69%</t>
-  </si>
-  <si>
-    <t>18.34%</t>
-  </si>
-  <si>
-    <t>33.95%</t>
-  </si>
-  <si>
-    <t>42.46%</t>
-  </si>
-  <si>
-    <t>34.49%</t>
+    <t>34.61%</t>
+  </si>
+  <si>
+    <t>11.91%</t>
+  </si>
+  <si>
+    <t>39.73%</t>
+  </si>
+  <si>
+    <t>30.49%</t>
+  </si>
+  <si>
+    <t>13.27%</t>
+  </si>
+  <si>
+    <t>28.59%</t>
+  </si>
+  <si>
+    <t>11.03%</t>
+  </si>
+  <si>
+    <t>37.61%</t>
+  </si>
+  <si>
+    <t>34.36%</t>
+  </si>
+  <si>
+    <t>18.37%</t>
+  </si>
+  <si>
+    <t>35.05%</t>
+  </si>
+  <si>
+    <t>13.92%</t>
+  </si>
+  <si>
+    <t>42.17%</t>
   </si>
   <si>
     <t>股票代码</t>
@@ -257,7 +254,7 @@
     <t>财报主营构成</t>
   </si>
   <si>
-    <t>区间涨跌幅</t>
+    <t>区间收益率</t>
   </si>
   <si>
     <t>603259.SH</t>
@@ -266,118 +263,118 @@
     <t>300760.SZ</t>
   </si>
   <si>
+    <t>600276.SH</t>
+  </si>
+  <si>
     <t>300122.SZ</t>
   </si>
   <si>
-    <t>600276.SH</t>
-  </si>
-  <si>
     <t>000661.SZ</t>
   </si>
   <si>
+    <t>300347.SZ</t>
+  </si>
+  <si>
     <t>300142.SZ</t>
   </si>
   <si>
-    <t>000718.SZ</t>
-  </si>
-  <si>
-    <t>300347.SZ</t>
+    <t>002594.SZ</t>
+  </si>
+  <si>
+    <t>300750.SZ</t>
+  </si>
+  <si>
+    <t>600196.SH</t>
+  </si>
+  <si>
+    <t>600048.SH</t>
   </si>
   <si>
     <t>000002.SZ</t>
   </si>
   <si>
-    <t>600196.SH</t>
-  </si>
-  <si>
-    <t>600048.SH</t>
-  </si>
-  <si>
-    <t>300750.SZ</t>
+    <t>600893.SH</t>
+  </si>
+  <si>
+    <t>300601.SZ</t>
+  </si>
+  <si>
+    <t>002812.SZ</t>
+  </si>
+  <si>
+    <t>300759.SZ</t>
   </si>
   <si>
     <t>300014.SZ</t>
   </si>
   <si>
-    <t>600893.SH</t>
-  </si>
-  <si>
-    <t>300601.SZ</t>
-  </si>
-  <si>
-    <t>002460.SZ</t>
+    <t>300124.SZ</t>
   </si>
   <si>
     <t>002821.SZ</t>
   </si>
   <si>
-    <t>300124.SZ</t>
-  </si>
-  <si>
-    <t>000069.SZ</t>
-  </si>
-  <si>
-    <t>001979.SZ</t>
-  </si>
-  <si>
-    <t>4.04%</t>
-  </si>
-  <si>
-    <t>3.75%</t>
-  </si>
-  <si>
-    <t>2.60%</t>
-  </si>
-  <si>
-    <t>2.57%</t>
-  </si>
-  <si>
-    <t>2.42%</t>
-  </si>
-  <si>
-    <t>2.25%</t>
-  </si>
-  <si>
-    <t>2.12%</t>
-  </si>
-  <si>
-    <t>1.91%</t>
-  </si>
-  <si>
-    <t>1.87%</t>
-  </si>
-  <si>
-    <t>1.74%</t>
-  </si>
-  <si>
-    <t>1.72%</t>
-  </si>
-  <si>
-    <t>1.57%</t>
-  </si>
-  <si>
-    <t>1.53%</t>
-  </si>
-  <si>
-    <t>1.39%</t>
-  </si>
-  <si>
-    <t>1.27%</t>
-  </si>
-  <si>
-    <t>1.26%</t>
-  </si>
-  <si>
-    <t>1.13%</t>
-  </si>
-  <si>
-    <t>1.10%</t>
-  </si>
-  <si>
-    <t>1.07%</t>
-  </si>
-  <si>
-    <t>1.03%</t>
+    <t>002179.SZ</t>
+  </si>
+  <si>
+    <t>356.43%</t>
+  </si>
+  <si>
+    <t>330.63%</t>
+  </si>
+  <si>
+    <t>330.13%</t>
+  </si>
+  <si>
+    <t>299.01%</t>
+  </si>
+  <si>
+    <t>219.48%</t>
+  </si>
+  <si>
+    <t>202.95%</t>
+  </si>
+  <si>
+    <t>193.45%</t>
+  </si>
+  <si>
+    <t>188.79%</t>
+  </si>
+  <si>
+    <t>187.90%</t>
+  </si>
+  <si>
+    <t>174.21%</t>
+  </si>
+  <si>
+    <t>164.56%</t>
+  </si>
+  <si>
+    <t>164.34%</t>
+  </si>
+  <si>
+    <t>123.32%</t>
+  </si>
+  <si>
+    <t>122.83%</t>
+  </si>
+  <si>
+    <t>118.32%</t>
+  </si>
+  <si>
+    <t>114.74%</t>
+  </si>
+  <si>
+    <t>111.69%</t>
+  </si>
+  <si>
+    <t>109.02%</t>
+  </si>
+  <si>
+    <t>108.57%</t>
+  </si>
+  <si>
+    <t>94.51%</t>
   </si>
   <si>
     <t>药明康德</t>
@@ -386,58 +383,58 @@
     <t>迈瑞医疗</t>
   </si>
   <si>
+    <t>恒瑞医药</t>
+  </si>
+  <si>
     <t>智飞生物</t>
   </si>
   <si>
-    <t>恒瑞医药</t>
-  </si>
-  <si>
     <t>长春高新</t>
   </si>
   <si>
+    <t>泰格医药</t>
+  </si>
+  <si>
     <t>沃森生物</t>
   </si>
   <si>
-    <t>苏宁环球</t>
-  </si>
-  <si>
-    <t>泰格医药</t>
+    <t>比亚迪</t>
+  </si>
+  <si>
+    <t>宁德时代</t>
+  </si>
+  <si>
+    <t>复星医药</t>
+  </si>
+  <si>
+    <t>保利地产</t>
   </si>
   <si>
     <t>万科A</t>
   </si>
   <si>
-    <t>复星医药</t>
-  </si>
-  <si>
-    <t>保利地产</t>
-  </si>
-  <si>
-    <t>宁德时代</t>
+    <t>航发动力</t>
+  </si>
+  <si>
+    <t>康泰生物</t>
+  </si>
+  <si>
+    <t>恩捷股份</t>
+  </si>
+  <si>
+    <t>康龙化成</t>
   </si>
   <si>
     <t>亿纬锂能</t>
   </si>
   <si>
-    <t>航发动力</t>
-  </si>
-  <si>
-    <t>康泰生物</t>
-  </si>
-  <si>
-    <t>赣锋锂业</t>
+    <t>汇川技术</t>
   </si>
   <si>
     <t>凯莱英</t>
   </si>
   <si>
-    <t>汇川技术</t>
-  </si>
-  <si>
-    <t>华侨城A</t>
-  </si>
-  <si>
-    <t>招商蛇口</t>
+    <t>中航光电</t>
   </si>
   <si>
     <t>中国区实验室服务</t>
@@ -446,115 +443,118 @@
     <t>生命信息与支持类产品</t>
   </si>
   <si>
+    <t>抗肿瘤</t>
+  </si>
+  <si>
     <t>代理产品-二类苗</t>
   </si>
   <si>
-    <t>抗肿瘤</t>
-  </si>
-  <si>
     <t>基因工程药品\生物类药品</t>
   </si>
   <si>
+    <t>临床研究相关咨询服务</t>
+  </si>
+  <si>
     <t>13价肺炎球菌多糖结合疫苗(预充注射剂)</t>
   </si>
   <si>
-    <t>商品房</t>
-  </si>
-  <si>
-    <t>临床研究相关咨询服务</t>
+    <t>汽车</t>
+  </si>
+  <si>
+    <t>动力电池系统</t>
+  </si>
+  <si>
+    <t>药品制造与研发</t>
+  </si>
+  <si>
+    <t>房地产</t>
   </si>
   <si>
     <t>房地产开发与经营业</t>
   </si>
   <si>
-    <t>药品制造与研发</t>
-  </si>
-  <si>
-    <t>房地产</t>
-  </si>
-  <si>
-    <t>动力电池系统</t>
+    <t>航空发动机制造及衍生产品</t>
+  </si>
+  <si>
+    <t>自主产品-二类疫苗</t>
+  </si>
+  <si>
+    <t>膜类产品</t>
+  </si>
+  <si>
+    <t>药物发现与研究</t>
   </si>
   <si>
     <t>锂离子电池</t>
   </si>
   <si>
-    <t>航空发动机制造及衍生产品</t>
-  </si>
-  <si>
-    <t>自主产品-二类疫苗</t>
-  </si>
-  <si>
-    <t>锂系列产品</t>
+    <t>变频器类</t>
   </si>
   <si>
     <t>商业化阶段</t>
   </si>
   <si>
-    <t>变频器类</t>
-  </si>
-  <si>
-    <t>旅游综合收入</t>
-  </si>
-  <si>
-    <t>社区开发与运营</t>
-  </si>
-  <si>
-    <t>44.35%</t>
-  </si>
-  <si>
-    <t>12.99%</t>
-  </si>
-  <si>
-    <t>-26.78%</t>
-  </si>
-  <si>
-    <t>-9.56%</t>
-  </si>
-  <si>
-    <t>69.93%</t>
-  </si>
-  <si>
-    <t>118.05%</t>
-  </si>
-  <si>
-    <t>20.12%</t>
-  </si>
-  <si>
-    <t>-15.15%</t>
-  </si>
-  <si>
-    <t>42.32%</t>
-  </si>
-  <si>
-    <t>-22.24%</t>
-  </si>
-  <si>
-    <t>45.26%</t>
-  </si>
-  <si>
-    <t>34.17%</t>
-  </si>
-  <si>
-    <t>-1.15%</t>
-  </si>
-  <si>
-    <t>-14.20%</t>
-  </si>
-  <si>
-    <t>21.15%</t>
-  </si>
-  <si>
-    <t>33.67%</t>
-  </si>
-  <si>
-    <t>17.94%</t>
-  </si>
-  <si>
-    <t>18.82%</t>
-  </si>
-  <si>
-    <t>-15.33%</t>
+    <t>电连接器</t>
+  </si>
+  <si>
+    <t>47.28%</t>
+  </si>
+  <si>
+    <t>10.26%</t>
+  </si>
+  <si>
+    <t>-32.63%</t>
+  </si>
+  <si>
+    <t>20.25%</t>
+  </si>
+  <si>
+    <t>-12.23%</t>
+  </si>
+  <si>
+    <t>2.29%</t>
+  </si>
+  <si>
+    <t>72.18%</t>
+  </si>
+  <si>
+    <t>43.27%</t>
+  </si>
+  <si>
+    <t>66.49%</t>
+  </si>
+  <si>
+    <t>25.89%</t>
+  </si>
+  <si>
+    <t>-22.95%</t>
+  </si>
+  <si>
+    <t>-16.07%</t>
+  </si>
+  <si>
+    <t>-4.93%</t>
+  </si>
+  <si>
+    <t>-16.24%</t>
+  </si>
+  <si>
+    <t>92.74%</t>
+  </si>
+  <si>
+    <t>87.65%</t>
+  </si>
+  <si>
+    <t>62.80%</t>
+  </si>
+  <si>
+    <t>38.18%</t>
+  </si>
+  <si>
+    <t>28.53%</t>
+  </si>
+  <si>
+    <t>11.24%</t>
   </si>
   <si>
     <t>一级标签</t>
@@ -566,7 +566,7 @@
     <t>医药生物</t>
   </si>
   <si>
-    <t>房地产开发</t>
+    <t>生物制品</t>
   </si>
   <si>
     <t>医疗器械</t>
@@ -575,34 +575,40 @@
     <t>锂电池</t>
   </si>
   <si>
+    <t>国防军工</t>
+  </si>
+  <si>
     <t xml:space="preserve">锂电池 </t>
   </si>
   <si>
-    <t>军工</t>
-  </si>
-  <si>
-    <t>太阳能光伏</t>
-  </si>
-  <si>
-    <t>51.98%</t>
-  </si>
-  <si>
-    <t>20.37%</t>
-  </si>
-  <si>
-    <t>9.78%</t>
-  </si>
-  <si>
-    <t>7.38%</t>
-  </si>
-  <si>
-    <t>3.99%</t>
-  </si>
-  <si>
-    <t>3.63%</t>
-  </si>
-  <si>
-    <t>2.87%</t>
+    <t>光伏太阳能</t>
+  </si>
+  <si>
+    <t>13.41%</t>
+  </si>
+  <si>
+    <t>12.16%</t>
+  </si>
+  <si>
+    <t>3.98%</t>
+  </si>
+  <si>
+    <t>3.96%</t>
+  </si>
+  <si>
+    <t>3.69%</t>
+  </si>
+  <si>
+    <t>2.62%</t>
+  </si>
+  <si>
+    <t>2.27%</t>
+  </si>
+  <si>
+    <t>1.35%</t>
+  </si>
+  <si>
+    <t>1.31%</t>
   </si>
 </sst>
 </file>
@@ -966,7 +972,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I118"/>
+  <dimension ref="A1:I127"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1035,22 +1041,22 @@
         <v>44200</v>
       </c>
       <c r="B3">
-        <v>0.9933107854190155</v>
+        <v>1.004127322376041</v>
       </c>
       <c r="C3">
         <v>0.977471693708416</v>
       </c>
       <c r="D3">
-        <v>1.004127322376041</v>
+        <v>1.066006857855362</v>
       </c>
       <c r="E3">
+        <v>0.9933107854190155</v>
+      </c>
+      <c r="F3">
         <v>1.07818653347421</v>
       </c>
-      <c r="F3">
-        <v>1.066006857855362</v>
-      </c>
       <c r="G3">
-        <v>1.020186947405136</v>
+        <v>1.030451153444009</v>
       </c>
       <c r="H3">
         <v>1.018168368380631</v>
@@ -1064,22 +1070,22 @@
         <v>44201</v>
       </c>
       <c r="B4">
-        <v>0.9927095077038707</v>
+        <v>1.013941672636526</v>
       </c>
       <c r="C4">
         <v>0.9761876969767713</v>
       </c>
       <c r="D4">
-        <v>1.013941672636526</v>
+        <v>1.075358478802993</v>
       </c>
       <c r="E4">
+        <v>0.9927095077038707</v>
+      </c>
+      <c r="F4">
         <v>1.091441744308904</v>
       </c>
-      <c r="F4">
-        <v>1.075358478802993</v>
-      </c>
       <c r="G4">
-        <v>1.026835313579226</v>
+        <v>1.037075247421356</v>
       </c>
       <c r="H4">
         <v>1.027111201157197</v>
@@ -1093,22 +1099,22 @@
         <v>44202</v>
       </c>
       <c r="B5">
-        <v>1.001428034573469</v>
+        <v>1.037618572711903</v>
       </c>
       <c r="C5">
         <v>0.9761876969767713</v>
       </c>
       <c r="D5">
-        <v>1.037618572711903</v>
+        <v>1.09180174563591</v>
       </c>
       <c r="E5">
+        <v>1.001428034573469</v>
+      </c>
+      <c r="F5">
         <v>1.079195082124676</v>
       </c>
-      <c r="F5">
-        <v>1.09180174563591</v>
-      </c>
       <c r="G5">
-        <v>1.036823279938966</v>
+        <v>1.045944456162119</v>
       </c>
       <c r="H5">
         <v>1.025290909062353</v>
@@ -1122,22 +1128,22 @@
         <v>44203</v>
       </c>
       <c r="B6">
-        <v>1.001803833145434</v>
+        <v>1.040792114227864</v>
       </c>
       <c r="C6">
         <v>0.9613633710750554</v>
       </c>
       <c r="D6">
-        <v>1.040792114227864</v>
+        <v>1.118609725685786</v>
       </c>
       <c r="E6">
+        <v>1.001803833145434</v>
+      </c>
+      <c r="F6">
         <v>1.111756795696859</v>
       </c>
-      <c r="F6">
-        <v>1.118609725685786</v>
-      </c>
       <c r="G6">
-        <v>1.045210298440815</v>
+        <v>1.058245145736784</v>
       </c>
       <c r="H6">
         <v>1.026858339183711</v>
@@ -1151,22 +1157,22 @@
         <v>44204</v>
       </c>
       <c r="B7">
-        <v>1.004735062006764</v>
+        <v>1.043334797371669</v>
       </c>
       <c r="C7">
         <v>0.9725691607330454</v>
       </c>
       <c r="D7">
-        <v>1.043334797371669</v>
+        <v>1.088606608478803</v>
       </c>
       <c r="E7">
+        <v>1.004735062006764</v>
+      </c>
+      <c r="F7">
         <v>1.098261454231102</v>
       </c>
-      <c r="F7">
-        <v>1.088606608478803</v>
-      </c>
       <c r="G7">
-        <v>1.041275431345553</v>
+        <v>1.048938278855054</v>
       </c>
       <c r="H7">
         <v>1.029917812005761</v>
@@ -1180,22 +1186,22 @@
         <v>44207</v>
       </c>
       <c r="B8">
-        <v>0.9954152574220217</v>
+        <v>1.03189027673108</v>
       </c>
       <c r="C8">
         <v>0.9668495389284464</v>
       </c>
       <c r="D8">
-        <v>1.03189027673108</v>
+        <v>1.052602867830424</v>
       </c>
       <c r="E8">
+        <v>0.9954152574220217</v>
+      </c>
+      <c r="F8">
         <v>1.055998463163961</v>
       </c>
-      <c r="F8">
-        <v>1.052602867830424</v>
-      </c>
       <c r="G8">
-        <v>1.02202802631491</v>
+        <v>1.025627978942847</v>
       </c>
       <c r="H8">
         <v>1.013866573688848</v>
@@ -1209,22 +1215,22 @@
         <v>44208</v>
       </c>
       <c r="B9">
-        <v>0.9959413754227734</v>
+        <v>1.048820421710136</v>
       </c>
       <c r="C9">
         <v>0.9673164468308626</v>
       </c>
       <c r="D9">
-        <v>1.048820421710136</v>
+        <v>1.094996882793018</v>
       </c>
       <c r="E9">
+        <v>0.9959413754227734</v>
+      </c>
+      <c r="F9">
         <v>1.083181250600327</v>
       </c>
-      <c r="F9">
-        <v>1.094996882793018</v>
-      </c>
       <c r="G9">
-        <v>1.039263960957365</v>
+        <v>1.047147472267477</v>
       </c>
       <c r="H9">
         <v>1.027660901099557</v>
@@ -1238,22 +1244,22 @@
         <v>44209</v>
       </c>
       <c r="B10">
-        <v>0.9947388199924839</v>
+        <v>1.023917183822912</v>
       </c>
       <c r="C10">
         <v>0.9689506244893195</v>
       </c>
       <c r="D10">
-        <v>1.023917183822912</v>
+        <v>1.079021197007481</v>
       </c>
       <c r="E10">
+        <v>0.9947388199924839</v>
+      </c>
+      <c r="F10">
         <v>1.045961002785516</v>
       </c>
-      <c r="F10">
-        <v>1.079021197007481</v>
-      </c>
       <c r="G10">
-        <v>1.022341939189312</v>
+        <v>1.031579993183918</v>
       </c>
       <c r="H10">
         <v>1.020386015005238</v>
@@ -1267,22 +1273,22 @@
         <v>44210</v>
       </c>
       <c r="B11">
-        <v>0.9931604659902291</v>
+        <v>1.005769754522801</v>
       </c>
       <c r="C11">
         <v>0.9789891443912688</v>
       </c>
       <c r="D11">
-        <v>1.005769754522801</v>
+        <v>1.017534289276808</v>
       </c>
       <c r="E11">
+        <v>0.9931604659902291</v>
+      </c>
+      <c r="F11">
         <v>1.018345980213236</v>
       </c>
-      <c r="F11">
-        <v>1.017534289276808</v>
-      </c>
       <c r="G11">
-        <v>1.003089697223236</v>
+        <v>1.005093891900311</v>
       </c>
       <c r="H11">
         <v>1.011430617658561</v>
@@ -1296,22 +1302,22 @@
         <v>44211</v>
       </c>
       <c r="B12">
-        <v>0.9989477639984967</v>
+        <v>1.008196251201437</v>
       </c>
       <c r="C12">
         <v>0.9830745885374109</v>
       </c>
       <c r="D12">
-        <v>1.008196251201437</v>
+        <v>1.009741271820449</v>
       </c>
       <c r="E12">
+        <v>0.9989477639984967</v>
+      </c>
+      <c r="F12">
         <v>1.040678128902123</v>
       </c>
-      <c r="F12">
-        <v>1.009741271820449</v>
-      </c>
       <c r="G12">
-        <v>1.007967763946803</v>
+        <v>1.008268934784954</v>
       </c>
       <c r="H12">
         <v>1.007914108598721</v>
@@ -1325,22 +1331,22 @@
         <v>44214</v>
       </c>
       <c r="B13">
-        <v>1.006012777151447</v>
+        <v>1.010824356521311</v>
       </c>
       <c r="C13">
         <v>0.998365822341543</v>
       </c>
       <c r="D13">
-        <v>1.010824356521311</v>
+        <v>1.031873441396509</v>
       </c>
       <c r="E13">
+        <v>1.006012777151447</v>
+      </c>
+      <c r="F13">
         <v>1.050859667659207</v>
       </c>
-      <c r="F13">
-        <v>1.031873441396509</v>
-      </c>
       <c r="G13">
-        <v>1.017967362560034</v>
+        <v>1.021464519461291</v>
       </c>
       <c r="H13">
         <v>1.023142367573358</v>
@@ -1354,22 +1360,22 @@
         <v>44215</v>
       </c>
       <c r="B14">
-        <v>1.015858699736941</v>
+        <v>0.9887250198916766</v>
       </c>
       <c r="C14">
         <v>1.021477763511147</v>
       </c>
       <c r="D14">
-        <v>0.9887250198916766</v>
+        <v>1.009273690773067</v>
       </c>
       <c r="E14">
+        <v>1.015858699736941</v>
+      </c>
+      <c r="F14">
         <v>1.02165978292191</v>
       </c>
-      <c r="F14">
-        <v>1.009273690773067</v>
-      </c>
       <c r="G14">
-        <v>1.0077304784761</v>
+        <v>1.010985340772303</v>
       </c>
       <c r="H14">
         <v>1.017160061629216</v>
@@ -1383,22 +1389,22 @@
         <v>44216</v>
       </c>
       <c r="B15">
-        <v>1.006012777151447</v>
+        <v>1.027351928802997</v>
       </c>
       <c r="C15">
         <v>1.006536710633827</v>
       </c>
       <c r="D15">
-        <v>1.027351928802997</v>
+        <v>1.02930174563591</v>
       </c>
       <c r="E15">
+        <v>1.006012777151447</v>
+      </c>
+      <c r="F15">
         <v>1.069685909134569</v>
       </c>
-      <c r="F15">
-        <v>1.02930174563591</v>
-      </c>
       <c r="G15">
-        <v>1.027492512465615</v>
+        <v>1.027920928001303</v>
       </c>
       <c r="H15">
         <v>1.026434284942462</v>
@@ -1412,22 +1418,22 @@
         <v>44217</v>
       </c>
       <c r="B16">
-        <v>1.006012777151447</v>
+        <v>1.055443812007164</v>
       </c>
       <c r="C16">
         <v>0.998365822341543</v>
       </c>
       <c r="D16">
-        <v>1.055443812007164</v>
+        <v>1.039043017456359</v>
       </c>
       <c r="E16">
+        <v>1.006012777151447</v>
+      </c>
+      <c r="F16">
         <v>1.099029872250505</v>
       </c>
-      <c r="F16">
-        <v>1.039043017456359</v>
-      </c>
       <c r="G16">
-        <v>1.041822846677805</v>
+        <v>1.039363870751201</v>
       </c>
       <c r="H16">
         <v>1.04011081950838</v>
@@ -1441,22 +1447,22 @@
         <v>44218</v>
       </c>
       <c r="B17">
-        <v>0.9891770011273957</v>
+        <v>1.110300216538111</v>
       </c>
       <c r="C17">
         <v>0.9751371541963348</v>
       </c>
       <c r="D17">
-        <v>1.110300216538111</v>
+        <v>1.041536783042394</v>
       </c>
       <c r="E17">
+        <v>0.9891770011273957</v>
+      </c>
+      <c r="F17">
         <v>1.13019882816252</v>
       </c>
-      <c r="F17">
-        <v>1.041536783042394</v>
-      </c>
       <c r="G17">
-        <v>1.058668853711422</v>
+        <v>1.047928503261682</v>
       </c>
       <c r="H17">
         <v>1.042515364113389</v>
@@ -1470,22 +1476,22 @@
         <v>44221</v>
       </c>
       <c r="B18">
-        <v>0.978053363397219</v>
+        <v>1.118695454091382</v>
       </c>
       <c r="C18">
         <v>0.9650986342943854</v>
       </c>
       <c r="D18">
-        <v>1.118695454091382</v>
+        <v>1.042939526184539</v>
       </c>
       <c r="E18">
+        <v>0.978053363397219</v>
+      </c>
+      <c r="F18">
         <v>1.1354336759197</v>
       </c>
-      <c r="F18">
-        <v>1.042939526184539</v>
-      </c>
       <c r="G18">
-        <v>1.058936917804928</v>
+        <v>1.04714040015377</v>
       </c>
       <c r="H18">
         <v>1.043693292561303</v>
@@ -1499,22 +1505,22 @@
         <v>44222</v>
       </c>
       <c r="B19">
-        <v>0.9754979331078543</v>
+        <v>1.076871564205738</v>
       </c>
       <c r="C19">
         <v>0.9639313645383447</v>
       </c>
       <c r="D19">
-        <v>1.076871564205738</v>
+        <v>0.9736596009975064</v>
       </c>
       <c r="E19">
+        <v>0.9754979331078543</v>
+      </c>
+      <c r="F19">
         <v>1.107674574968783</v>
       </c>
-      <c r="F19">
-        <v>0.9736596009975064</v>
-      </c>
       <c r="G19">
-        <v>1.028490735822185</v>
+        <v>1.011967630048316</v>
       </c>
       <c r="H19">
         <v>1.026047924411546</v>
@@ -1528,22 +1534,22 @@
         <v>44223</v>
       </c>
       <c r="B20">
-        <v>0.9782788425403984</v>
+        <v>1.066476603911961</v>
       </c>
       <c r="C20">
         <v>0.9576281078557255</v>
       </c>
       <c r="D20">
-        <v>1.066476603911961</v>
+        <v>0.971243765586035</v>
       </c>
       <c r="E20">
+        <v>0.9782788425403984</v>
+      </c>
+      <c r="F20">
         <v>1.120785707424839</v>
       </c>
-      <c r="F20">
-        <v>0.971243765586035</v>
-      </c>
       <c r="G20">
-        <v>1.026226323905082</v>
+        <v>1.010953894388162</v>
       </c>
       <c r="H20">
         <v>1.02984870687015</v>
@@ -1557,22 +1563,22 @@
         <v>44224</v>
       </c>
       <c r="B21">
-        <v>0.9676813228109734</v>
+        <v>1.033218034149328</v>
       </c>
       <c r="C21">
         <v>0.9425703280028014</v>
       </c>
       <c r="D21">
-        <v>1.033218034149328</v>
+        <v>0.9569046134663343</v>
       </c>
       <c r="E21">
+        <v>0.9676813228109734</v>
+      </c>
+      <c r="F21">
         <v>1.073191816348093</v>
       </c>
-      <c r="F21">
-        <v>0.9569046134663343</v>
-      </c>
       <c r="G21">
-        <v>1.000670642827</v>
+        <v>0.9884066119709984</v>
       </c>
       <c r="H21">
         <v>1.007424090364388</v>
@@ -1586,22 +1592,22 @@
         <v>44225</v>
       </c>
       <c r="B22">
-        <v>0.9670048853814355</v>
+        <v>1.023794932397892</v>
       </c>
       <c r="C22">
         <v>0.926695459320649</v>
       </c>
       <c r="D22">
-        <v>1.023794932397892</v>
+        <v>0.9264339152119702</v>
       </c>
       <c r="E22">
+        <v>0.9670048853814355</v>
+      </c>
+      <c r="F22">
         <v>1.052300451445586</v>
       </c>
-      <c r="F22">
-        <v>0.9264339152119702</v>
-      </c>
       <c r="G22">
-        <v>0.9862725567891556</v>
+        <v>0.9704919391885608</v>
       </c>
       <c r="H22">
         <v>0.9967065120596316</v>
@@ -1615,22 +1621,22 @@
         <v>44228</v>
       </c>
       <c r="B23">
-        <v>0.976249530251785</v>
+        <v>1.047833503315797</v>
       </c>
       <c r="C23">
         <v>0.9319481732228317</v>
       </c>
       <c r="D23">
-        <v>1.047833503315797</v>
+        <v>0.9218360349127184</v>
       </c>
       <c r="E23">
+        <v>0.976249530251785</v>
+      </c>
+      <c r="F23">
         <v>1.048554413600999</v>
       </c>
-      <c r="F23">
-        <v>0.9218360349127184</v>
-      </c>
       <c r="G23">
-        <v>0.9952930896896613</v>
+        <v>0.9748614272684734</v>
       </c>
       <c r="H23">
         <v>1.004110184997589</v>
@@ -1644,22 +1650,22 @@
         <v>44229</v>
       </c>
       <c r="B24">
-        <v>0.9722660653889516</v>
+        <v>1.065362086966162</v>
       </c>
       <c r="C24">
         <v>0.9355667094665577</v>
       </c>
       <c r="D24">
-        <v>1.065362086966162</v>
+        <v>0.9368765586034913</v>
       </c>
       <c r="E24">
+        <v>0.9722660653889516</v>
+      </c>
+      <c r="F24">
         <v>1.10436077226011</v>
       </c>
-      <c r="F24">
-        <v>0.9368765586034913</v>
-      </c>
       <c r="G24">
-        <v>1.012705220016764</v>
+        <v>0.9919705879448097</v>
       </c>
       <c r="H24">
         <v>1.013770768841751</v>
@@ -1673,22 +1679,22 @@
         <v>44230</v>
       </c>
       <c r="B25">
-        <v>0.9685832393836903</v>
+        <v>1.080511257949877</v>
       </c>
       <c r="C25">
         <v>0.9250612816621921</v>
       </c>
       <c r="D25">
-        <v>1.080511257949877</v>
+        <v>0.9064058603491273</v>
       </c>
       <c r="E25">
+        <v>0.9685832393836903</v>
+      </c>
+      <c r="F25">
         <v>1.104120641629046</v>
       </c>
-      <c r="F25">
-        <v>0.9064058603491273</v>
-      </c>
       <c r="G25">
-        <v>1.010225156527658</v>
+        <v>0.9820574060163653</v>
       </c>
       <c r="H25">
         <v>1.00506038061224</v>
@@ -1702,22 +1708,22 @@
         <v>44231</v>
       </c>
       <c r="B26">
-        <v>0.9662532882375048</v>
+        <v>1.068067659695923</v>
       </c>
       <c r="C26">
         <v>0.91350531107739</v>
       </c>
       <c r="D26">
-        <v>1.068067659695923</v>
+        <v>0.8935473815461348</v>
       </c>
       <c r="E26">
+        <v>0.9662532882375048</v>
+      </c>
+      <c r="F26">
         <v>1.0789069253674</v>
       </c>
-      <c r="F26">
-        <v>0.8935473815461348</v>
-      </c>
       <c r="G26">
-        <v>0.9974762502239199</v>
+        <v>0.9691894761864971</v>
       </c>
       <c r="H26">
         <v>0.9939815709167896</v>
@@ -1731,22 +1737,22 @@
         <v>44232</v>
       </c>
       <c r="B27">
-        <v>0.9809845922585494</v>
+        <v>1.100404047918281</v>
       </c>
       <c r="C27">
         <v>0.9279794560522937</v>
       </c>
       <c r="D27">
-        <v>1.100404047918281</v>
+        <v>0.8753117206982545</v>
       </c>
       <c r="E27">
+        <v>0.9809845922585494</v>
+      </c>
+      <c r="F27">
         <v>1.040774181154548</v>
       </c>
-      <c r="F27">
-        <v>0.8753117206982545</v>
-      </c>
       <c r="G27">
-        <v>1.003811397831589</v>
+        <v>0.9672682611185828</v>
       </c>
       <c r="H27">
         <v>0.9800160512383169</v>
@@ -1760,22 +1766,22 @@
         <v>44235</v>
       </c>
       <c r="B28">
-        <v>0.981510710259301</v>
+        <v>1.113552470685185</v>
       </c>
       <c r="C28">
         <v>0.9292634527839384</v>
       </c>
       <c r="D28">
-        <v>1.113552470685185</v>
+        <v>0.8789744389027432</v>
       </c>
       <c r="E28">
+        <v>0.981510710259301</v>
+      </c>
+      <c r="F28">
         <v>1.066420132552108</v>
       </c>
-      <c r="F28">
-        <v>0.8789744389027432</v>
-      </c>
       <c r="G28">
-        <v>1.013294027333512</v>
+        <v>0.9752488608915387</v>
       </c>
       <c r="H28">
         <v>0.9930973392952219</v>
@@ -1789,22 +1795,22 @@
         <v>44236</v>
       </c>
       <c r="B29">
-        <v>0.9857196542653138</v>
+        <v>1.129049805523547</v>
       </c>
       <c r="C29">
         <v>0.9308976304423952</v>
       </c>
       <c r="D29">
-        <v>1.129049805523547</v>
+        <v>0.9283821695760599</v>
       </c>
       <c r="E29">
+        <v>0.9857196542653138</v>
+      </c>
+      <c r="F29">
         <v>1.100374603784459</v>
       </c>
-      <c r="F29">
-        <v>0.9283821695760599</v>
-      </c>
       <c r="G29">
-        <v>1.033156241827567</v>
+        <v>1.000762732652522</v>
       </c>
       <c r="H29">
         <v>1.014256075362292</v>
@@ -1818,22 +1824,22 @@
         <v>44237</v>
       </c>
       <c r="B30">
-        <v>0.9901540774145058</v>
+        <v>1.160285740475123</v>
       </c>
       <c r="C30">
         <v>0.9300805416131668</v>
       </c>
       <c r="D30">
-        <v>1.160285740475123</v>
+        <v>0.9240960099750624</v>
       </c>
       <c r="E30">
+        <v>0.9901540774145058</v>
+      </c>
+      <c r="F30">
         <v>1.116319277687062</v>
       </c>
-      <c r="F30">
-        <v>0.9240960099750624</v>
-      </c>
       <c r="G30">
-        <v>1.046002702055746</v>
+        <v>1.007882054838539</v>
       </c>
       <c r="H30">
         <v>1.024824449396979</v>
@@ -1847,22 +1853,22 @@
         <v>44245</v>
       </c>
       <c r="B31">
-        <v>1.010597519729425</v>
+        <v>1.094033452179689</v>
       </c>
       <c r="C31">
         <v>0.9592622855141822</v>
       </c>
       <c r="D31">
-        <v>1.094033452179689</v>
+        <v>0.9183291770573566</v>
       </c>
       <c r="E31">
+        <v>1.010597519729425</v>
+      </c>
+      <c r="F31">
         <v>1.101239074056287</v>
       </c>
-      <c r="F31">
-        <v>0.9183291770573566</v>
-      </c>
       <c r="G31">
-        <v>1.029135967544462</v>
+        <v>1.000561941811528</v>
       </c>
       <c r="H31">
         <v>1.038860644782327</v>
@@ -1876,22 +1882,22 @@
         <v>44246</v>
       </c>
       <c r="B32">
-        <v>1.027583615182262</v>
+        <v>1.084557553048292</v>
       </c>
       <c r="C32">
         <v>0.9770047858059997</v>
       </c>
       <c r="D32">
-        <v>1.084557553048292</v>
+        <v>0.921524314214464</v>
       </c>
       <c r="E32">
+        <v>1.027583615182262</v>
+      </c>
+      <c r="F32">
         <v>1.07674574968783</v>
       </c>
-      <c r="F32">
-        <v>0.921524314214464</v>
-      </c>
       <c r="G32">
-        <v>1.02839858121782</v>
+        <v>1.001782966499568</v>
       </c>
       <c r="H32">
         <v>1.052829305603327</v>
@@ -1905,22 +1911,22 @@
         <v>44249</v>
       </c>
       <c r="B33">
-        <v>1.036226982337467</v>
+        <v>1.03088082715739</v>
       </c>
       <c r="C33">
         <v>0.9835414964398272</v>
       </c>
       <c r="D33">
-        <v>1.03088082715739</v>
+        <v>0.8913653366583542</v>
       </c>
       <c r="E33">
+        <v>1.036226982337467</v>
+      </c>
+      <c r="F33">
         <v>1.056910959562002</v>
       </c>
-      <c r="F33">
-        <v>0.8913653366583542</v>
-      </c>
       <c r="G33">
-        <v>1.005016903230438</v>
+        <v>0.9819701165221962</v>
       </c>
       <c r="H33">
         <v>1.045538713796369</v>
@@ -1934,22 +1940,22 @@
         <v>44250</v>
       </c>
       <c r="B34">
-        <v>1.027508455467869</v>
+        <v>1.026414526264448</v>
       </c>
       <c r="C34">
         <v>0.9736197035134819</v>
       </c>
       <c r="D34">
-        <v>1.026414526264448</v>
+        <v>0.9158354114713217</v>
       </c>
       <c r="E34">
+        <v>1.027508455467869</v>
+      </c>
+      <c r="F34">
         <v>1.033618288348862</v>
       </c>
-      <c r="F34">
-        <v>0.9158354114713217</v>
-      </c>
       <c r="G34">
-        <v>1.000568441164428</v>
+        <v>0.9823174175775449</v>
       </c>
       <c r="H34">
         <v>1.041481928221752</v>
@@ -1963,22 +1969,22 @@
         <v>44251</v>
       </c>
       <c r="B35">
-        <v>1.025779782036828</v>
+        <v>0.9897813044331062</v>
       </c>
       <c r="C35">
         <v>0.9786389634644567</v>
       </c>
       <c r="D35">
-        <v>0.9897813044331062</v>
+        <v>0.9159912718204489</v>
       </c>
       <c r="E35">
+        <v>1.025779782036828</v>
+      </c>
+      <c r="F35">
         <v>0.9825665161848046</v>
       </c>
-      <c r="F35">
-        <v>0.9159912718204489</v>
-      </c>
       <c r="G35">
-        <v>0.9806410522190103</v>
+        <v>0.9682857044499033</v>
       </c>
       <c r="H35">
         <v>1.026555218929781</v>
@@ -1992,22 +1998,22 @@
         <v>44252</v>
       </c>
       <c r="B36">
-        <v>1.049004133784291</v>
+        <v>0.9886792836485474</v>
       </c>
       <c r="C36">
         <v>1.033500641998366</v>
       </c>
       <c r="D36">
-        <v>0.9886792836485474</v>
+        <v>0.9336814214463841</v>
       </c>
       <c r="E36">
+        <v>1.049004133784291</v>
+      </c>
+      <c r="F36">
         <v>0.9625396215541255</v>
       </c>
-      <c r="F36">
-        <v>0.9336814214463841</v>
-      </c>
       <c r="G36">
-        <v>0.9931664475821564</v>
+        <v>0.9837901760681207</v>
       </c>
       <c r="H36">
         <v>1.020737822968348</v>
@@ -2021,22 +2027,22 @@
         <v>44253</v>
       </c>
       <c r="B37">
-        <v>1.028335212326193</v>
+        <v>0.9786603215662223</v>
       </c>
       <c r="C37">
         <v>1.008987977121513</v>
       </c>
       <c r="D37">
-        <v>0.9786603215662223</v>
+        <v>0.9023534912718205</v>
       </c>
       <c r="E37">
+        <v>1.028335212326193</v>
+      </c>
+      <c r="F37">
         <v>0.9374699836711171</v>
       </c>
-      <c r="F37">
-        <v>0.9023534912718205</v>
-      </c>
       <c r="G37">
-        <v>0.9728737216885481</v>
+        <v>0.9600347202361719</v>
       </c>
       <c r="H37">
         <v>0.9995665223311676</v>
@@ -2050,22 +2056,22 @@
         <v>44256</v>
       </c>
       <c r="B38">
-        <v>1.043517474633596</v>
+        <v>0.9979384703377243</v>
       </c>
       <c r="C38">
         <v>1.017742500291817</v>
       </c>
       <c r="D38">
-        <v>0.9979384703377243</v>
+        <v>0.9193422693266834</v>
       </c>
       <c r="E38">
+        <v>1.043517474633596</v>
+      </c>
+      <c r="F38">
         <v>0.980981654019787</v>
       </c>
-      <c r="F38">
-        <v>0.9193422693266834</v>
-      </c>
       <c r="G38">
-        <v>0.993287338300937</v>
+        <v>0.980091070112636</v>
       </c>
       <c r="H38">
         <v>1.019055741144727</v>
@@ -2079,22 +2085,22 @@
         <v>44257</v>
       </c>
       <c r="B39">
-        <v>1.036452461480646</v>
+        <v>0.9720724273989513</v>
       </c>
       <c r="C39">
         <v>1.009688338975137</v>
       </c>
       <c r="D39">
-        <v>0.9720724273989513</v>
+        <v>0.9259663341645885</v>
       </c>
       <c r="E39">
+        <v>1.036452461480646</v>
+      </c>
+      <c r="F39">
         <v>0.9807415233887236</v>
       </c>
-      <c r="F39">
-        <v>0.9259663341645885</v>
-      </c>
       <c r="G39">
-        <v>0.9832346336154336</v>
+        <v>0.9753052280613553</v>
       </c>
       <c r="H39">
         <v>1.010400322909452</v>
@@ -2108,22 +2114,22 @@
         <v>44258</v>
       </c>
       <c r="B40">
-        <v>1.059827132656896</v>
+        <v>0.9909020181857088</v>
       </c>
       <c r="C40">
         <v>1.017975954243026</v>
       </c>
       <c r="D40">
-        <v>0.9909020181857088</v>
+        <v>0.9240960099750624</v>
       </c>
       <c r="E40">
+        <v>1.059827132656896</v>
+      </c>
+      <c r="F40">
         <v>0.9912112189030833</v>
       </c>
-      <c r="F40">
-        <v>0.9240960099750624</v>
-      </c>
       <c r="G40">
-        <v>0.9962498835391647</v>
+        <v>0.984882266612052</v>
       </c>
       <c r="H40">
         <v>1.024758485403896</v>
@@ -2137,22 +2143,22 @@
         <v>44259</v>
       </c>
       <c r="B41">
-        <v>1.061255167230365</v>
+        <v>0.9474461706612607</v>
       </c>
       <c r="C41">
         <v>1.006770164585036</v>
       </c>
       <c r="D41">
-        <v>0.9474461706612607</v>
+        <v>0.9117051122194514</v>
       </c>
       <c r="E41">
+        <v>1.061255167230365</v>
+      </c>
+      <c r="F41">
         <v>0.9335798674478917</v>
       </c>
-      <c r="F41">
-        <v>0.9117051122194514</v>
-      </c>
       <c r="G41">
-        <v>0.9686935643719456</v>
+        <v>0.9622272447462016</v>
       </c>
       <c r="H41">
         <v>1.005478152568434</v>
@@ -2166,22 +2172,22 @@
         <v>44260</v>
       </c>
       <c r="B42">
-        <v>1.04629838406614</v>
+        <v>0.9503171966677352</v>
       </c>
       <c r="C42">
         <v>0.9935800163417765</v>
       </c>
       <c r="D42">
-        <v>0.9503171966677352</v>
+        <v>0.892534289276808</v>
       </c>
       <c r="E42">
+        <v>1.04629838406614</v>
+      </c>
+      <c r="F42">
         <v>0.9333397368168285</v>
       </c>
-      <c r="F42">
-        <v>0.892534289276808</v>
-      </c>
       <c r="G42">
-        <v>0.9616532172751486</v>
+        <v>0.9516391316186535</v>
       </c>
       <c r="H42">
         <v>1.005715308829281</v>
@@ -2195,22 +2201,22 @@
         <v>44263</v>
       </c>
       <c r="B43">
-        <v>1.040962044344232</v>
+        <v>0.8954351259298817</v>
       </c>
       <c r="C43">
         <v>0.9819073187813703</v>
       </c>
       <c r="D43">
-        <v>0.8954351259298817</v>
+        <v>0.8323721945137158</v>
       </c>
       <c r="E43">
+        <v>1.040962044344232</v>
+      </c>
+      <c r="F43">
         <v>0.8843050619537028</v>
       </c>
-      <c r="F43">
-        <v>0.8323721945137158</v>
-      </c>
       <c r="G43">
-        <v>0.9226331306053375</v>
+        <v>0.9115001123295983</v>
       </c>
       <c r="H43">
         <v>0.9826137761087841</v>
@@ -2224,22 +2230,22 @@
         <v>44264</v>
       </c>
       <c r="B44">
-        <v>1.030289364900413</v>
+        <v>0.8674222483500562</v>
       </c>
       <c r="C44">
         <v>0.9682502626356951</v>
       </c>
       <c r="D44">
-        <v>0.8674222483500562</v>
+        <v>0.7886533665835412</v>
       </c>
       <c r="E44">
+        <v>1.030289364900413</v>
+      </c>
+      <c r="F44">
         <v>0.8690807799442898</v>
       </c>
-      <c r="F44">
-        <v>0.7886533665835412</v>
-      </c>
       <c r="G44">
-        <v>0.8995272128137491</v>
+        <v>0.8857160117395224</v>
       </c>
       <c r="H44">
         <v>0.9593049279814547</v>
@@ -2253,22 +2259,22 @@
         <v>44265</v>
       </c>
       <c r="B45">
-        <v>1.02314919203307</v>
+        <v>0.8893784284877434</v>
       </c>
       <c r="C45">
         <v>0.9570444729777051</v>
       </c>
       <c r="D45">
-        <v>0.8893784284877434</v>
+        <v>0.7831203241895262</v>
       </c>
       <c r="E45">
+        <v>1.02314919203307</v>
+      </c>
+      <c r="F45">
         <v>0.890500432235136</v>
       </c>
-      <c r="F45">
-        <v>0.7831203241895262</v>
-      </c>
       <c r="G45">
-        <v>0.9062752292628564</v>
+        <v>0.888073788235924</v>
       </c>
       <c r="H45">
         <v>0.952121135020441</v>
@@ -2282,22 +2288,22 @@
         <v>44266</v>
       </c>
       <c r="B46">
-        <v>1.048778654641112</v>
+        <v>0.9114744689435453</v>
       </c>
       <c r="C46">
         <v>0.9708182560989844</v>
       </c>
       <c r="D46">
-        <v>0.9114744689435453</v>
+        <v>0.7966801745635911</v>
       </c>
       <c r="E46">
+        <v>1.048778654641112</v>
+      </c>
+      <c r="F46">
         <v>0.9168187493996736</v>
       </c>
-      <c r="F46">
-        <v>0.7966801745635911</v>
-      </c>
       <c r="G46">
-        <v>0.9268453720311252</v>
+        <v>0.9072177925299449</v>
       </c>
       <c r="H46">
         <v>0.9759262836671583</v>
@@ -2311,22 +2317,22 @@
         <v>44267</v>
       </c>
       <c r="B47">
-        <v>1.069297256670425</v>
+        <v>0.9166699420868117</v>
       </c>
       <c r="C47">
         <v>0.9856425820007004</v>
       </c>
       <c r="D47">
-        <v>0.9166699420868117</v>
+        <v>0.7906795511221946</v>
       </c>
       <c r="E47">
+        <v>1.069297256670425</v>
+      </c>
+      <c r="F47">
         <v>0.9207568917491116</v>
       </c>
-      <c r="F47">
-        <v>0.7906795511221946</v>
-      </c>
       <c r="G47">
-        <v>0.9342278665365047</v>
+        <v>0.9126763154544248</v>
       </c>
       <c r="H47">
         <v>0.9772691220977807</v>
@@ -2340,22 +2346,22 @@
         <v>44270</v>
       </c>
       <c r="B48">
-        <v>1.076061630965802</v>
+        <v>0.8757856668385999</v>
       </c>
       <c r="C48">
         <v>0.984942220147076</v>
       </c>
       <c r="D48">
-        <v>0.8757856668385999</v>
+        <v>0.7855361596009975</v>
       </c>
       <c r="E48">
+        <v>1.076061630965802</v>
+      </c>
+      <c r="F48">
         <v>0.8923734511574297</v>
       </c>
-      <c r="F48">
-        <v>0.7855361596009975</v>
-      </c>
       <c r="G48">
-        <v>0.9162350105210678</v>
+        <v>0.9003424620062275</v>
       </c>
       <c r="H48">
         <v>0.9696502808966706</v>
@@ -2369,22 +2375,22 @@
         <v>44271</v>
       </c>
       <c r="B49">
-        <v>1.079669297256671</v>
+        <v>0.8876667473911847</v>
       </c>
       <c r="C49">
         <v>1.011555970584802</v>
       </c>
       <c r="D49">
-        <v>0.8876667473911847</v>
+        <v>0.7842113466334165</v>
       </c>
       <c r="E49">
+        <v>1.079669297256671</v>
+      </c>
+      <c r="F49">
         <v>0.894870809720488</v>
       </c>
-      <c r="F49">
-        <v>0.7842113466334165</v>
-      </c>
       <c r="G49">
-        <v>0.9254868779705356</v>
+        <v>0.9074567240961764</v>
       </c>
       <c r="H49">
         <v>0.9730065916875945</v>
@@ -2398,22 +2404,22 @@
         <v>44272</v>
       </c>
       <c r="B50">
-        <v>1.072904922961293</v>
+        <v>0.8905306243628587</v>
       </c>
       <c r="C50">
         <v>1.009104704097117</v>
       </c>
       <c r="D50">
-        <v>0.8905306243628587</v>
+        <v>0.7973815461346635</v>
       </c>
       <c r="E50">
+        <v>1.072904922961293</v>
+      </c>
+      <c r="F50">
         <v>0.9174430890404381</v>
       </c>
-      <c r="F50">
-        <v>0.7973815461346635</v>
-      </c>
       <c r="G50">
-        <v>0.9307628074435648</v>
+        <v>0.9144813380429205</v>
       </c>
       <c r="H50">
         <v>0.9777371523344186</v>
@@ -2427,22 +2433,22 @@
         <v>44273</v>
       </c>
       <c r="B51">
-        <v>1.074859075535513</v>
+        <v>0.9136224902071773</v>
       </c>
       <c r="C51">
         <v>1.008521069219096</v>
       </c>
       <c r="D51">
-        <v>0.9136224902071773</v>
+        <v>0.8066552369077307</v>
       </c>
       <c r="E51">
+        <v>1.074859075535513</v>
+      </c>
+      <c r="F51">
         <v>0.9207568917491116</v>
       </c>
-      <c r="F51">
-        <v>0.8066552369077307</v>
-      </c>
       <c r="G51">
-        <v>0.9406930476050311</v>
+        <v>0.9222372678839807</v>
       </c>
       <c r="H51">
         <v>0.9853544229642648</v>
@@ -2456,22 +2462,22 @@
         <v>44274</v>
       </c>
       <c r="B52">
-        <v>1.061706125516723</v>
+        <v>0.8910089651093848</v>
       </c>
       <c r="C52">
         <v>0.9890276642932182</v>
       </c>
       <c r="D52">
-        <v>0.8910089651093848</v>
+        <v>0.8120324189526186</v>
       </c>
       <c r="E52">
+        <v>1.061706125516723</v>
+      </c>
+      <c r="F52">
         <v>0.8901162232254347</v>
       </c>
-      <c r="F52">
-        <v>0.8120324189526186</v>
-      </c>
       <c r="G52">
-        <v>0.9235122287131659</v>
+        <v>0.9096276127952627</v>
       </c>
       <c r="H52">
         <v>0.9747907606433689</v>
@@ -2485,22 +2491,22 @@
         <v>44277</v>
       </c>
       <c r="B53">
-        <v>1.073506200676437</v>
+        <v>0.8978545321723633</v>
       </c>
       <c r="C53">
         <v>0.9990661841951675</v>
       </c>
       <c r="D53">
-        <v>0.8978545321723633</v>
+        <v>0.8185006234413966</v>
       </c>
       <c r="E53">
+        <v>1.073506200676437</v>
+      </c>
+      <c r="F53">
         <v>0.9013543367591971</v>
       </c>
-      <c r="F53">
-        <v>0.8185006234413966</v>
-      </c>
       <c r="G53">
-        <v>0.9324053694781507</v>
+        <v>0.9184337161950208</v>
       </c>
       <c r="H53">
         <v>0.9903535512972134</v>
@@ -2514,22 +2520,22 @@
         <v>44278</v>
       </c>
       <c r="B54">
-        <v>1.06042841037204</v>
+        <v>0.900951045768282</v>
       </c>
       <c r="C54">
         <v>0.9899614800980506</v>
       </c>
       <c r="D54">
-        <v>0.900951045768282</v>
+        <v>0.8129675810473815</v>
       </c>
       <c r="E54">
+        <v>1.06042841037204</v>
+      </c>
+      <c r="F54">
         <v>0.8681682835462493</v>
       </c>
-      <c r="F54">
-        <v>0.8129675810473815</v>
-      </c>
       <c r="G54">
-        <v>0.9232675441413977</v>
+        <v>0.9079528856394304</v>
       </c>
       <c r="H54">
         <v>0.9767649687220733</v>
@@ -2543,22 +2549,22 @@
         <v>44279</v>
       </c>
       <c r="B55">
-        <v>1.047200300638857</v>
+        <v>0.9015302201347496</v>
       </c>
       <c r="C55">
         <v>0.9747869732695225</v>
       </c>
       <c r="D55">
-        <v>0.9015302201347496</v>
+        <v>0.7979270573566085</v>
       </c>
       <c r="E55">
+        <v>1.047200300638857</v>
+      </c>
+      <c r="F55">
         <v>0.8384881375468255</v>
       </c>
-      <c r="F55">
-        <v>0.7979270573566085</v>
-      </c>
       <c r="G55">
-        <v>0.9112513163679586</v>
+        <v>0.8934284441070447</v>
       </c>
       <c r="H55">
         <v>0.9647296811269164</v>
@@ -2572,22 +2578,22 @@
         <v>44280</v>
       </c>
       <c r="B56">
-        <v>1.044644870349493</v>
+        <v>0.913890681559825</v>
       </c>
       <c r="C56">
         <v>0.9704680751721723</v>
       </c>
       <c r="D56">
-        <v>0.913890681559825</v>
+        <v>0.8013559850374066</v>
       </c>
       <c r="E56">
+        <v>1.044644870349493</v>
+      </c>
+      <c r="F56">
         <v>0.8523676880222841</v>
       </c>
-      <c r="F56">
-        <v>0.8013559850374066</v>
-      </c>
       <c r="G56">
-        <v>0.9170175317082743</v>
+        <v>0.8977955358381269</v>
       </c>
       <c r="H56">
         <v>0.9670651205963146</v>
@@ -2601,22 +2607,22 @@
         <v>44281</v>
       </c>
       <c r="B57">
-        <v>1.052987598647125</v>
+        <v>0.9428902724387289</v>
       </c>
       <c r="C57">
         <v>0.9753706081475428</v>
       </c>
       <c r="D57">
-        <v>0.9428902724387289</v>
+        <v>0.8143703241895262</v>
       </c>
       <c r="E57">
+        <v>1.052987598647125</v>
+      </c>
+      <c r="F57">
         <v>0.8949188358467006</v>
       </c>
-      <c r="F57">
-        <v>0.8143703241895262</v>
-      </c>
       <c r="G57">
-        <v>0.9380073964658515</v>
+        <v>0.9162511183736911</v>
       </c>
       <c r="H57">
         <v>0.9818881721848689</v>
@@ -2630,22 +2636,22 @@
         <v>44284</v>
       </c>
       <c r="B58">
-        <v>1.072003006388576</v>
+        <v>0.9463779612953893</v>
       </c>
       <c r="C58">
         <v>0.9795727792692891</v>
       </c>
       <c r="D58">
-        <v>0.9463779612953893</v>
+        <v>0.8287874064837905</v>
       </c>
       <c r="E58">
+        <v>1.072003006388576</v>
+      </c>
+      <c r="F58">
         <v>0.8840169051964269</v>
       </c>
-      <c r="F58">
-        <v>0.8287874064837905</v>
-      </c>
       <c r="G58">
-        <v>0.9436853222165513</v>
+        <v>0.9236547554471717</v>
       </c>
       <c r="H58">
         <v>0.9823829021329928</v>
@@ -2659,22 +2665,22 @@
         <v>44285</v>
       </c>
       <c r="B59">
-        <v>1.068846298384066</v>
+        <v>0.9675903341709375</v>
       </c>
       <c r="C59">
         <v>0.9805065950741215</v>
       </c>
       <c r="D59">
-        <v>0.9675903341709375</v>
+        <v>0.8463996259351622</v>
       </c>
       <c r="E59">
+        <v>1.068846298384066</v>
+      </c>
+      <c r="F59">
         <v>0.8964076457592931</v>
       </c>
-      <c r="F59">
-        <v>0.8463996259351622</v>
-      </c>
       <c r="G59">
-        <v>0.9552580019938866</v>
+        <v>0.9347552553139179</v>
       </c>
       <c r="H59">
         <v>0.9863752942857905</v>
@@ -2688,22 +2694,22 @@
         <v>44286</v>
       </c>
       <c r="B60">
-        <v>1.06869597895528</v>
+        <v>0.9567762470623217</v>
       </c>
       <c r="C60">
         <v>0.9785222364888526</v>
       </c>
       <c r="D60">
-        <v>0.9567762470623217</v>
+        <v>0.8123441396508729</v>
       </c>
       <c r="E60">
+        <v>1.06869597895528</v>
+      </c>
+      <c r="F60">
         <v>0.883872826817789</v>
       </c>
-      <c r="F60">
-        <v>0.8123441396508729</v>
-      </c>
       <c r="G60">
-        <v>0.9436390576233979</v>
+        <v>0.9192481612410441</v>
       </c>
       <c r="H60">
         <v>0.9822462624330348</v>
@@ -2717,22 +2723,22 @@
         <v>44287</v>
       </c>
       <c r="B61">
-        <v>1.074332957534761</v>
+        <v>0.9742437416243307</v>
       </c>
       <c r="C61">
         <v>0.9791058713668729</v>
       </c>
       <c r="D61">
-        <v>0.9742437416243307</v>
+        <v>0.8189682044887781</v>
       </c>
       <c r="E61">
+        <v>1.074332957534761</v>
+      </c>
+      <c r="F61">
         <v>0.9008260493708578</v>
       </c>
-      <c r="F61">
-        <v>0.8189682044887781</v>
-      </c>
       <c r="G61">
-        <v>0.9543510875361469</v>
+        <v>0.9282301778292286</v>
       </c>
       <c r="H61">
         <v>0.9912911823417532</v>
@@ -2746,22 +2752,22 @@
         <v>44288</v>
       </c>
       <c r="B62">
-        <v>1.064261555806088</v>
+        <v>0.9782067680469143</v>
       </c>
       <c r="C62">
         <v>0.9864596708299287</v>
       </c>
       <c r="D62">
-        <v>0.9782067680469143</v>
+        <v>0.8223192019950125</v>
       </c>
       <c r="E62">
+        <v>1.064261555806088</v>
+      </c>
+      <c r="F62">
         <v>0.913937181826914</v>
       </c>
-      <c r="F62">
-        <v>0.8223192019950125</v>
-      </c>
       <c r="G62">
-        <v>0.9579131453142226</v>
+        <v>0.9317614229768628</v>
       </c>
       <c r="H62">
         <v>0.9936391863812625</v>
@@ -2775,22 +2781,22 @@
         <v>44292</v>
       </c>
       <c r="B63">
-        <v>1.064186396091695</v>
+        <v>0.9650400771521492</v>
       </c>
       <c r="C63">
         <v>0.9843585852690557</v>
       </c>
       <c r="D63">
-        <v>0.9650400771521492</v>
+        <v>0.8305018703241897</v>
       </c>
       <c r="E63">
+        <v>1.064186396091695</v>
+      </c>
+      <c r="F63">
         <v>0.9183075593122659</v>
       </c>
-      <c r="F63">
-        <v>0.8305018703241897</v>
-      </c>
       <c r="G63">
-        <v>0.9552694281815521</v>
+        <v>0.9325748924602411</v>
       </c>
       <c r="H63">
         <v>0.9962290583954103</v>
@@ -2804,22 +2810,22 @@
         <v>44293</v>
       </c>
       <c r="B64">
-        <v>1.074934235249906</v>
+        <v>0.9663052512165702</v>
       </c>
       <c r="C64">
         <v>0.9953309209758375</v>
       </c>
       <c r="D64">
-        <v>0.9663052512165702</v>
+        <v>0.8252805486284289</v>
       </c>
       <c r="E64">
+        <v>1.074934235249906</v>
+      </c>
+      <c r="F64">
         <v>0.911391797137643</v>
       </c>
-      <c r="F64">
-        <v>0.8252805486284289</v>
-      </c>
       <c r="G64">
-        <v>0.9573767465112465</v>
+        <v>0.9335645256640365</v>
       </c>
       <c r="H64">
         <v>0.9970112028848254</v>
@@ -2833,22 +2839,22 @@
         <v>44294</v>
       </c>
       <c r="B65">
-        <v>1.072754603532507</v>
+        <v>0.9880981169281189</v>
       </c>
       <c r="C65">
         <v>0.9816738648301622</v>
       </c>
       <c r="D65">
-        <v>0.9880981169281189</v>
+        <v>0.823176433915212</v>
       </c>
       <c r="E65">
+        <v>1.072754603532507</v>
+      </c>
+      <c r="F65">
         <v>0.9065411583901642</v>
       </c>
-      <c r="F65">
-        <v>0.823176433915212</v>
-      </c>
       <c r="G65">
-        <v>0.9607286209383201</v>
+        <v>0.9330932608081685</v>
       </c>
       <c r="H65">
         <v>0.9983728881706143</v>
@@ -2862,22 +2868,22 @@
         <v>44295</v>
       </c>
       <c r="B66">
-        <v>1.070349492671928</v>
+        <v>0.9688127312238475</v>
       </c>
       <c r="C66">
         <v>0.9827244076105988</v>
       </c>
       <c r="D66">
-        <v>0.9688127312238475</v>
+        <v>0.8278522443890275</v>
       </c>
       <c r="E66">
+        <v>1.070349492671928</v>
+      </c>
+      <c r="F66">
         <v>0.8905964844875613</v>
       </c>
-      <c r="F66">
-        <v>0.8278522443890275</v>
-      </c>
       <c r="G66">
-        <v>0.9522748046165364</v>
+        <v>0.9285086404815507</v>
       </c>
       <c r="H66">
         <v>0.9949945893819959</v>
@@ -2891,22 +2897,22 @@
         <v>44298</v>
       </c>
       <c r="B67">
-        <v>1.073055242390079</v>
+        <v>0.9436396026232445</v>
       </c>
       <c r="C67">
         <v>0.9838916773666394</v>
       </c>
       <c r="D67">
-        <v>0.9436396026232445</v>
+        <v>0.8005766832917707</v>
       </c>
       <c r="E67">
+        <v>1.073055242390079</v>
+      </c>
+      <c r="F67">
         <v>0.8604841033522237</v>
       </c>
-      <c r="F67">
-        <v>0.8005766832917707</v>
-      </c>
       <c r="G67">
-        <v>0.935157075020572</v>
+        <v>0.9109046151320446</v>
       </c>
       <c r="H67">
         <v>0.9779036328883906</v>
@@ -2920,22 +2926,22 @@
         <v>44299</v>
       </c>
       <c r="B68">
-        <v>1.065689590379556</v>
+        <v>0.9583567843893441</v>
       </c>
       <c r="C68">
         <v>0.9753706081475428</v>
       </c>
       <c r="D68">
-        <v>0.9583567843893441</v>
+        <v>0.7983167082294265</v>
       </c>
       <c r="E68">
+        <v>1.065689590379556</v>
+      </c>
+      <c r="F68">
         <v>0.8655748727307656</v>
       </c>
-      <c r="F68">
-        <v>0.7983167082294265</v>
-      </c>
       <c r="G68">
-        <v>0.9377800834565222</v>
+        <v>0.9108368068601846</v>
       </c>
       <c r="H68">
         <v>0.9752902023052845</v>
@@ -2949,22 +2955,22 @@
         <v>44300</v>
       </c>
       <c r="B69">
-        <v>1.070499812100714</v>
+        <v>0.9612804466295033</v>
       </c>
       <c r="C69">
         <v>0.9840084043422435</v>
       </c>
       <c r="D69">
-        <v>0.9612804466295033</v>
+        <v>0.810240024937656</v>
       </c>
       <c r="E69">
+        <v>1.070499812100714</v>
+      </c>
+      <c r="F69">
         <v>0.9065411583901642</v>
       </c>
-      <c r="F69">
-        <v>0.810240024937656</v>
-      </c>
       <c r="G69">
-        <v>0.9497578394321293</v>
+        <v>0.9242900730256184</v>
       </c>
       <c r="H69">
         <v>0.9858805643376666</v>
@@ -2978,22 +2984,22 @@
         <v>44301</v>
       </c>
       <c r="B70">
-        <v>1.07087561067268</v>
+        <v>0.9594471586930292</v>
       </c>
       <c r="C70">
         <v>0.9806233220497256</v>
       </c>
       <c r="D70">
-        <v>0.9594471586930292</v>
+        <v>0.8079800498753117</v>
       </c>
       <c r="E70">
+        <v>1.07087561067268</v>
+      </c>
+      <c r="F70">
         <v>0.9049082700989339</v>
       </c>
-      <c r="F70">
-        <v>0.8079800498753117</v>
-      </c>
       <c r="G70">
-        <v>0.9479989537272591</v>
+        <v>0.9224497385124375</v>
       </c>
       <c r="H70">
         <v>0.9857627714928752</v>
@@ -3007,22 +3013,22 @@
         <v>44302</v>
       </c>
       <c r="B71">
-        <v>1.086208192408869</v>
+        <v>0.9537038907581775</v>
       </c>
       <c r="C71">
         <v>0.9978989144391268</v>
       </c>
       <c r="D71">
-        <v>0.9537038907581775</v>
+        <v>0.8092269326683292</v>
       </c>
       <c r="E71">
+        <v>1.086208192408869</v>
+      </c>
+      <c r="F71">
         <v>0.8990010565747767</v>
       </c>
-      <c r="F71">
-        <v>0.8092269326683292</v>
-      </c>
       <c r="G71">
-        <v>0.9508781103394705</v>
+        <v>0.9263768907463921</v>
       </c>
       <c r="H71">
         <v>0.9956777878817863</v>
@@ -3036,22 +3042,22 @@
         <v>44305</v>
       </c>
       <c r="B72">
-        <v>1.083276963547539</v>
+        <v>0.9829057495130855</v>
       </c>
       <c r="C72">
         <v>0.9953309209758375</v>
       </c>
       <c r="D72">
-        <v>0.9829057495130855</v>
+        <v>0.820682668329177</v>
       </c>
       <c r="E72">
+        <v>1.083276963547539</v>
+      </c>
+      <c r="F72">
         <v>0.9587455575833254</v>
       </c>
-      <c r="F72">
-        <v>0.820682668329177</v>
-      </c>
       <c r="G72">
-        <v>0.9713278949838552</v>
+        <v>0.944059230518338</v>
       </c>
       <c r="H72">
         <v>1.009132871899496</v>
@@ -3065,22 +3071,22 @@
         <v>44306</v>
       </c>
       <c r="B73">
-        <v>1.081247651258925</v>
+        <v>0.9894957678812706</v>
       </c>
       <c r="C73">
         <v>0.9899614800980506</v>
       </c>
       <c r="D73">
-        <v>0.9894957678812706</v>
+        <v>0.8162406483790525</v>
       </c>
       <c r="E73">
+        <v>1.081247651258925</v>
+      </c>
+      <c r="F73">
         <v>0.9505330900009606</v>
       </c>
-      <c r="F73">
-        <v>0.8162406483790525</v>
-      </c>
       <c r="G73">
-        <v>0.9701568225642074</v>
+        <v>0.9411109684294532</v>
       </c>
       <c r="H73">
         <v>1.009648019274051</v>
@@ -3094,22 +3100,22 @@
         <v>44307</v>
       </c>
       <c r="B74">
-        <v>1.084178880120255</v>
+        <v>1.009417652077367</v>
       </c>
       <c r="C74">
         <v>0.9919458386833196</v>
       </c>
       <c r="D74">
-        <v>1.009417652077367</v>
+        <v>0.8091490024937656</v>
       </c>
       <c r="E74">
+        <v>1.084178880120255</v>
+      </c>
+      <c r="F74">
         <v>0.9491403323407934</v>
       </c>
-      <c r="F74">
-        <v>0.8091490024937656</v>
-      </c>
       <c r="G74">
-        <v>0.9761667676298411</v>
+        <v>0.9427486343083324</v>
       </c>
       <c r="H74">
         <v>1.008347586267553</v>
@@ -3123,22 +3129,22 @@
         <v>44308</v>
       </c>
       <c r="B75">
-        <v>1.084404359263435</v>
+        <v>1.006916193080956</v>
       </c>
       <c r="C75">
         <v>0.9928796544881522</v>
       </c>
       <c r="D75">
-        <v>1.006916193080956</v>
+        <v>0.8092269326683292</v>
       </c>
       <c r="E75">
+        <v>1.084404359263435</v>
+      </c>
+      <c r="F75">
         <v>0.9515416386514265</v>
       </c>
-      <c r="F75">
-        <v>0.8092269326683292</v>
-      </c>
       <c r="G75">
-        <v>0.975947440322245</v>
+        <v>0.9429412715232492</v>
       </c>
       <c r="H75">
         <v>1.012306996423809</v>
@@ -3152,22 +3158,22 @@
         <v>44309</v>
       </c>
       <c r="B76">
-        <v>1.076963547538519</v>
+        <v>1.032292160894361</v>
       </c>
       <c r="C76">
         <v>0.9786389634644567</v>
       </c>
       <c r="D76">
-        <v>1.032292160894361</v>
+        <v>0.8061097256857855</v>
       </c>
       <c r="E76">
+        <v>1.076963547538519</v>
+      </c>
+      <c r="F76">
         <v>0.9658053981365864</v>
       </c>
-      <c r="F76">
-        <v>0.8061097256857855</v>
-      </c>
       <c r="G76">
-        <v>0.9824748353963364</v>
+        <v>0.9449313766537006</v>
       </c>
       <c r="H76">
         <v>1.015022514139068</v>
@@ -3181,22 +3187,22 @@
         <v>44312</v>
       </c>
       <c r="B77">
-        <v>1.072453964674934</v>
+        <v>1.036403617687023</v>
       </c>
       <c r="C77">
         <v>0.9722189798062332</v>
       </c>
       <c r="D77">
-        <v>1.036403617687023</v>
+        <v>0.8057200748129677</v>
       </c>
       <c r="E77">
+        <v>1.072453964674934</v>
+      </c>
+      <c r="F77">
         <v>0.9528863701853809</v>
       </c>
-      <c r="F77">
-        <v>0.8057200748129677</v>
-      </c>
       <c r="G77">
-        <v>0.9797776578232436</v>
+        <v>0.9415346215140848</v>
       </c>
       <c r="H77">
         <v>1.011864095327393</v>
@@ -3210,22 +3216,22 @@
         <v>44313</v>
       </c>
       <c r="B78">
-        <v>1.068846298384066</v>
+        <v>1.062571238556948</v>
       </c>
       <c r="C78">
         <v>0.9733862495622738</v>
       </c>
       <c r="D78">
-        <v>1.062571238556948</v>
+        <v>0.7945760598503742</v>
       </c>
       <c r="E78">
+        <v>1.068846298384066</v>
+      </c>
+      <c r="F78">
         <v>0.9460186341369706</v>
       </c>
-      <c r="F78">
-        <v>0.7945760598503742</v>
-      </c>
       <c r="G78">
-        <v>0.9850261663825826</v>
+        <v>0.9407755865968623</v>
       </c>
       <c r="H78">
         <v>1.012434212696184</v>
@@ -3239,22 +3245,22 @@
         <v>44314</v>
       </c>
       <c r="B79">
-        <v>1.077489665539271</v>
+        <v>1.087231292063665</v>
       </c>
       <c r="C79">
         <v>0.9771215127816038</v>
       </c>
       <c r="D79">
-        <v>1.087231292063665</v>
+        <v>0.8017456359102244</v>
       </c>
       <c r="E79">
+        <v>1.077489665539271</v>
+      </c>
+      <c r="F79">
         <v>0.9720487945442321</v>
       </c>
-      <c r="F79">
-        <v>0.8017456359102244</v>
-      </c>
       <c r="G79">
-        <v>1.000746307720543</v>
+        <v>0.9536898825878477</v>
       </c>
       <c r="H79">
         <v>1.019259915409032</v>
@@ -3268,22 +3274,22 @@
         <v>44315</v>
       </c>
       <c r="B80">
-        <v>1.088613303269447</v>
+        <v>1.081834473973067</v>
       </c>
       <c r="C80">
         <v>0.9843585852690557</v>
       </c>
       <c r="D80">
-        <v>1.081834473973067</v>
+        <v>0.801278054862843</v>
       </c>
       <c r="E80">
+        <v>1.088613303269447</v>
+      </c>
+      <c r="F80">
         <v>0.9715685332821056</v>
       </c>
-      <c r="F80">
-        <v>0.801278054862843</v>
-      </c>
       <c r="G80">
-        <v>1.001930284506574</v>
+        <v>0.9556045812069054</v>
       </c>
       <c r="H80">
         <v>1.019603870515823</v>
@@ -3297,22 +3303,22 @@
         <v>44316</v>
       </c>
       <c r="B81">
-        <v>1.079969936114243</v>
+        <v>1.104373842484467</v>
       </c>
       <c r="C81">
         <v>0.9710517100501925</v>
       </c>
       <c r="D81">
-        <v>1.104373842484467</v>
+        <v>0.7742362842892769</v>
       </c>
       <c r="E81">
+        <v>1.079969936114243</v>
+      </c>
+      <c r="F81">
         <v>0.9920756891749113</v>
       </c>
-      <c r="F81">
-        <v>0.7742362842892769</v>
-      </c>
       <c r="G81">
-        <v>1.004558523489419</v>
+        <v>0.9502078459190638</v>
       </c>
       <c r="H81">
         <v>1.018626975189686</v>
@@ -3326,22 +3332,22 @@
         <v>44322</v>
       </c>
       <c r="B82">
-        <v>1.094400601277715</v>
+        <v>1.055915721552302</v>
       </c>
       <c r="C82">
         <v>0.9666160849772382</v>
       </c>
       <c r="D82">
-        <v>1.055915721552302</v>
+        <v>0.7846009975062345</v>
       </c>
       <c r="E82">
+        <v>1.094400601277715</v>
+      </c>
+      <c r="F82">
         <v>0.9846316396119489</v>
       </c>
-      <c r="F82">
-        <v>0.7846009975062345</v>
-      </c>
       <c r="G82">
-        <v>0.9907484099001022</v>
+        <v>0.9457890560338738</v>
       </c>
       <c r="H82">
         <v>1.01919866312974</v>
@@ -3355,22 +3361,22 @@
         <v>44323</v>
       </c>
       <c r="B83">
-        <v>1.100263059000376</v>
+        <v>1.02068747550485</v>
       </c>
       <c r="C83">
         <v>0.9603128282946188</v>
       </c>
       <c r="D83">
-        <v>1.02068747550485</v>
+        <v>0.7733011221945137</v>
       </c>
       <c r="E83">
+        <v>1.100263059000376</v>
+      </c>
+      <c r="F83">
         <v>0.9554317548746519</v>
       </c>
-      <c r="F83">
-        <v>0.7733011221945137</v>
-      </c>
       <c r="G83">
-        <v>0.9723656924731621</v>
+        <v>0.9311490662594789</v>
       </c>
       <c r="H83">
         <v>1.012145227583629</v>
@@ -3384,22 +3390,22 @@
         <v>44326</v>
       </c>
       <c r="B84">
-        <v>1.109282224727546</v>
+        <v>1.045176259819247</v>
       </c>
       <c r="C84">
         <v>0.9495739465390451</v>
       </c>
       <c r="D84">
-        <v>1.045176259819247</v>
+        <v>0.7623129675810474</v>
       </c>
       <c r="E84">
+        <v>1.109282224727546</v>
+      </c>
+      <c r="F84">
         <v>0.9644126404764194</v>
       </c>
-      <c r="F84">
-        <v>0.7623129675810474</v>
-      </c>
       <c r="G84">
-        <v>0.979823440185154</v>
+        <v>0.9328304671413097</v>
       </c>
       <c r="H84">
         <v>1.017100379921189</v>
@@ -3413,22 +3419,22 @@
         <v>44327</v>
       </c>
       <c r="B85">
-        <v>1.10304396843292</v>
+        <v>1.061027017740725</v>
       </c>
       <c r="C85">
         <v>0.9615968250262635</v>
       </c>
       <c r="D85">
-        <v>1.061027017740725</v>
+        <v>0.7819513715710724</v>
       </c>
       <c r="E85">
+        <v>1.10304396843292</v>
+      </c>
+      <c r="F85">
         <v>0.9444817980981655</v>
       </c>
-      <c r="F85">
-        <v>0.7819513715710724</v>
-      </c>
       <c r="G85">
-        <v>0.9859893237379248</v>
+        <v>0.9397317573664712</v>
       </c>
       <c r="H85">
         <v>1.013967090249737</v>
@@ -3442,22 +3448,22 @@
         <v>44328</v>
       </c>
       <c r="B86">
-        <v>1.114092446448703</v>
+        <v>1.087965503797537</v>
       </c>
       <c r="C86">
         <v>0.9582117427337457</v>
       </c>
       <c r="D86">
-        <v>1.087965503797537</v>
+        <v>0.7791458852867831</v>
       </c>
       <c r="E86">
+        <v>1.114092446448703</v>
+      </c>
+      <c r="F86">
         <v>0.9481798098165403</v>
       </c>
-      <c r="F86">
-        <v>0.7791458852867831</v>
-      </c>
       <c r="G86">
-        <v>0.9963290681062519</v>
+        <v>0.9452431963387218</v>
       </c>
       <c r="H86">
         <v>1.022763859898761</v>
@@ -3471,22 +3477,22 @@
         <v>44329</v>
       </c>
       <c r="B87">
-        <v>1.108756106726794</v>
+        <v>1.095360858006061</v>
       </c>
       <c r="C87">
         <v>0.9639313645383447</v>
       </c>
       <c r="D87">
-        <v>1.095360858006061</v>
+        <v>0.7760286783042395</v>
       </c>
       <c r="E87">
+        <v>1.108756106726794</v>
+      </c>
+      <c r="F87">
         <v>0.9260877917587168</v>
       </c>
-      <c r="F87">
-        <v>0.7760286783042395</v>
-      </c>
       <c r="G87">
-        <v>0.9946751708174616</v>
+        <v>0.9419183849230575</v>
       </c>
       <c r="H87">
         <v>1.011295548529867</v>
@@ -3500,22 +3506,22 @@
         <v>44330</v>
       </c>
       <c r="B88">
-        <v>1.111161217587373</v>
+        <v>1.117933144306798</v>
       </c>
       <c r="C88">
         <v>0.9759542430255631</v>
       </c>
       <c r="D88">
-        <v>1.117933144306798</v>
+        <v>0.8062655860349127</v>
       </c>
       <c r="E88">
+        <v>1.111161217587373</v>
+      </c>
+      <c r="F88">
         <v>0.9557679377581405</v>
       </c>
-      <c r="F88">
-        <v>0.8062655860349127</v>
-      </c>
       <c r="G88">
-        <v>1.014463097351296</v>
+        <v>0.9630718098700325</v>
       </c>
       <c r="H88">
         <v>1.024923395386604</v>
@@ -3529,22 +3535,22 @@
         <v>44333</v>
       </c>
       <c r="B89">
-        <v>1.116798196166854</v>
+        <v>1.143025172381468</v>
       </c>
       <c r="C89">
         <v>0.9742033383915023</v>
       </c>
       <c r="D89">
-        <v>1.143025172381468</v>
+        <v>0.8110193266832918</v>
       </c>
       <c r="E89">
+        <v>1.116798196166854</v>
+      </c>
+      <c r="F89">
         <v>1.002449332436846</v>
       </c>
-      <c r="F89">
-        <v>0.8110193266832918</v>
-      </c>
       <c r="G89">
-        <v>1.031890896515628</v>
+        <v>0.9772410668565019</v>
       </c>
       <c r="H89">
         <v>1.033143765381782</v>
@@ -3558,22 +3564,22 @@
         <v>44334</v>
       </c>
       <c r="B90">
-        <v>1.121758737316798</v>
+        <v>1.123221379106533</v>
       </c>
       <c r="C90">
         <v>0.9847087661958679</v>
       </c>
       <c r="D90">
-        <v>1.123221379106533</v>
+        <v>0.8293329177057358</v>
       </c>
       <c r="E90">
+        <v>1.121758737316798</v>
+      </c>
+      <c r="F90">
         <v>1.003361828834886</v>
       </c>
-      <c r="F90">
-        <v>0.8293329177057358</v>
-      </c>
       <c r="G90">
-        <v>1.031157163881512</v>
+        <v>0.9826728809593289</v>
       </c>
       <c r="H90">
         <v>1.036514211314081</v>
@@ -3587,22 +3593,22 @@
         <v>44335</v>
       </c>
       <c r="B91">
-        <v>1.117850432168358</v>
+        <v>1.119504510945736</v>
       </c>
       <c r="C91">
         <v>0.9768880588303956</v>
       </c>
       <c r="D91">
-        <v>1.119504510945736</v>
+        <v>0.8308915211970076</v>
       </c>
       <c r="E91">
+        <v>1.117850432168358</v>
+      </c>
+      <c r="F91">
         <v>1.040149841513784</v>
       </c>
-      <c r="F91">
-        <v>0.8308915211970076</v>
-      </c>
       <c r="G91">
-        <v>1.034263856929162</v>
+        <v>0.9866509840145083</v>
       </c>
       <c r="H91">
         <v>1.034125372421711</v>
@@ -3616,22 +3622,22 @@
         <v>44336</v>
       </c>
       <c r="B92">
-        <v>1.102743329575348</v>
+        <v>1.122223341619133</v>
       </c>
       <c r="C92">
         <v>0.9725691607330454</v>
       </c>
       <c r="D92">
-        <v>1.122223341619133</v>
+        <v>0.8322942643391522</v>
       </c>
       <c r="E92">
+        <v>1.102743329575348</v>
+      </c>
+      <c r="F92">
         <v>1.044616271251561</v>
       </c>
-      <c r="F92">
-        <v>0.8322942643391522</v>
-      </c>
       <c r="G92">
-        <v>1.032827064459208</v>
+        <v>0.9850861667682306</v>
       </c>
       <c r="H92">
         <v>1.028521574152166</v>
@@ -3645,22 +3651,22 @@
         <v>44337</v>
       </c>
       <c r="B93">
-        <v>1.106125516723036</v>
+        <v>1.101237774802562</v>
       </c>
       <c r="C93">
         <v>0.9705848021477763</v>
       </c>
       <c r="D93">
-        <v>1.101237774802562</v>
+        <v>0.8153054862842893</v>
       </c>
       <c r="E93">
+        <v>1.106125516723036</v>
+      </c>
+      <c r="F93">
         <v>1.040437998271059</v>
       </c>
-      <c r="F93">
-        <v>0.8153054862842893</v>
-      </c>
       <c r="G93">
-        <v>1.022646894844516</v>
+        <v>0.9754436285293988</v>
       </c>
       <c r="H93">
         <v>1.025246933066964</v>
@@ -3674,22 +3680,22 @@
         <v>44340</v>
       </c>
       <c r="B94">
-        <v>1.112814731304021</v>
+        <v>1.093003068239749</v>
       </c>
       <c r="C94">
         <v>0.9743200653671064</v>
       </c>
       <c r="D94">
-        <v>1.093003068239749</v>
+        <v>0.8232543640897756</v>
       </c>
       <c r="E94">
+        <v>1.112814731304021</v>
+      </c>
+      <c r="F94">
         <v>1.046825473057343</v>
       </c>
-      <c r="F94">
-        <v>0.8232543640897756</v>
-      </c>
       <c r="G94">
-        <v>1.024067101082484</v>
+        <v>0.9794595065824165</v>
       </c>
       <c r="H94">
         <v>1.027800681942043</v>
@@ -3703,22 +3709,22 @@
         <v>44341</v>
       </c>
       <c r="B95">
-        <v>1.130477264186396</v>
+        <v>1.124618854263747</v>
       </c>
       <c r="C95">
         <v>0.9857593089763045</v>
       </c>
       <c r="D95">
-        <v>1.124618854263747</v>
+        <v>0.8514650872817956</v>
       </c>
       <c r="E95">
+        <v>1.130477264186396</v>
+      </c>
+      <c r="F95">
         <v>1.060320814523101</v>
       </c>
-      <c r="F95">
-        <v>0.8514650872817956</v>
-      </c>
       <c r="G95">
-        <v>1.046329113142503</v>
+        <v>1.001229449540868</v>
       </c>
       <c r="H95">
         <v>1.0396663478407</v>
@@ -3732,22 +3738,22 @@
         <v>44342</v>
       </c>
       <c r="B96">
-        <v>1.136189402480271</v>
+        <v>1.120316483082725</v>
       </c>
       <c r="C96">
         <v>0.9960312828294619</v>
       </c>
       <c r="D96">
-        <v>1.120316483082725</v>
+        <v>0.8516209476309228</v>
       </c>
       <c r="E96">
+        <v>1.136189402480271</v>
+      </c>
+      <c r="F96">
         <v>1.051195850542695</v>
       </c>
-      <c r="F96">
-        <v>0.8516209476309228</v>
-      </c>
       <c r="G96">
-        <v>1.046146727618601</v>
+        <v>1.001732599672066</v>
       </c>
       <c r="H96">
         <v>1.041007615700059</v>
@@ -3761,22 +3767,22 @@
         <v>44343</v>
       </c>
       <c r="B97">
-        <v>1.141901540774145</v>
+        <v>1.121273530817313</v>
       </c>
       <c r="C97">
         <v>1.001750904634061</v>
       </c>
       <c r="D97">
-        <v>1.121273530817313</v>
+        <v>0.8588684538653368</v>
       </c>
       <c r="E97">
+        <v>1.141901540774145</v>
+      </c>
+      <c r="F97">
         <v>1.054605705503794</v>
       </c>
-      <c r="F97">
-        <v>0.8588684538653368</v>
-      </c>
       <c r="G97">
-        <v>1.050164417185015</v>
+        <v>1.006764439438155</v>
       </c>
       <c r="H97">
         <v>1.049991283329486</v>
@@ -3790,22 +3796,22 @@
         <v>44344</v>
       </c>
       <c r="B98">
-        <v>1.148816234498309</v>
+        <v>1.096874065488938</v>
       </c>
       <c r="C98">
         <v>0.9978989144391268</v>
       </c>
       <c r="D98">
-        <v>1.096874065488938</v>
+        <v>0.8636221945137158</v>
       </c>
       <c r="E98">
+        <v>1.148816234498309</v>
+      </c>
+      <c r="F98">
         <v>1.100230525405821</v>
       </c>
-      <c r="F98">
-        <v>0.8636221945137158</v>
-      </c>
       <c r="G98">
-        <v>1.050945715717437</v>
+        <v>1.012199446161479</v>
       </c>
       <c r="H98">
         <v>1.047283618470546</v>
@@ -3819,22 +3825,22 @@
         <v>44347</v>
       </c>
       <c r="B99">
-        <v>1.157158962795941</v>
+        <v>1.117570447987966</v>
       </c>
       <c r="C99">
         <v>0.9974320065367106</v>
       </c>
       <c r="D99">
-        <v>1.117570447987966</v>
+        <v>0.8893391521197008</v>
       </c>
       <c r="E99">
+        <v>1.157158962795941</v>
+      </c>
+      <c r="F99">
         <v>1.15565267505523</v>
       </c>
-      <c r="F99">
-        <v>0.8893391521197008</v>
-      </c>
       <c r="G99">
-        <v>1.072502364106443</v>
+        <v>1.03464625771414</v>
       </c>
       <c r="H99">
         <v>1.0568358328975</v>
@@ -3848,22 +3854,22 @@
         <v>44348</v>
       </c>
       <c r="B100">
-        <v>1.156332205937617</v>
+        <v>1.136906638718238</v>
       </c>
       <c r="C100">
         <v>0.9931131084393603</v>
       </c>
       <c r="D100">
-        <v>1.136906638718238</v>
+        <v>0.883806109725686</v>
       </c>
       <c r="E100">
+        <v>1.156332205937617</v>
+      </c>
+      <c r="F100">
         <v>1.144894822783594</v>
       </c>
-      <c r="F100">
-        <v>0.883806109725686</v>
-      </c>
       <c r="G100">
-        <v>1.075320548085136</v>
+        <v>1.033461832965268</v>
       </c>
       <c r="H100">
         <v>1.058527338148705</v>
@@ -3877,22 +3883,22 @@
         <v>44349</v>
       </c>
       <c r="B101">
-        <v>1.157309282224728</v>
+        <v>1.118010611716685</v>
       </c>
       <c r="C101">
         <v>0.9921792926345278</v>
       </c>
       <c r="D101">
-        <v>1.118010611716685</v>
+        <v>0.8630766832917706</v>
       </c>
       <c r="E101">
+        <v>1.157309282224728</v>
+      </c>
+      <c r="F101">
         <v>1.139131687638075</v>
       </c>
-      <c r="F101">
-        <v>0.8630766832917706</v>
-      </c>
       <c r="G101">
-        <v>1.064720940796004</v>
+        <v>1.022460349253353</v>
       </c>
       <c r="H101">
         <v>1.049366195966459</v>
@@ -3906,22 +3912,22 @@
         <v>44350</v>
       </c>
       <c r="B102">
-        <v>1.15467869222097</v>
+        <v>1.094844618585296</v>
       </c>
       <c r="C102">
         <v>0.9966149177074822</v>
       </c>
       <c r="D102">
-        <v>1.094844618585296</v>
+        <v>0.8511533665835412</v>
       </c>
       <c r="E102">
+        <v>1.15467869222097</v>
+      </c>
+      <c r="F102">
         <v>1.133560656997407</v>
       </c>
-      <c r="F102">
-        <v>0.8511533665835412</v>
-      </c>
       <c r="G102">
-        <v>1.054496451711841</v>
+        <v>1.013988224763373</v>
       </c>
       <c r="H102">
         <v>1.047214513334935</v>
@@ -3935,22 +3941,22 @@
         <v>44351</v>
       </c>
       <c r="B103">
-        <v>1.151897782788425</v>
+        <v>1.106112581505772</v>
       </c>
       <c r="C103">
         <v>0.9882105754639897</v>
       </c>
       <c r="D103">
-        <v>1.106112581505772</v>
+        <v>0.8606608478802994</v>
       </c>
       <c r="E103">
+        <v>1.151897782788425</v>
+      </c>
+      <c r="F103">
         <v>1.162376332725003</v>
       </c>
-      <c r="F103">
-        <v>0.8606608478802994</v>
-      </c>
       <c r="G103">
-        <v>1.06263670759969</v>
+        <v>1.021908245545074</v>
       </c>
       <c r="H103">
         <v>1.051192770346358</v>
@@ -3964,22 +3970,22 @@
         <v>44354</v>
       </c>
       <c r="B104">
-        <v>1.140849304772642</v>
+        <v>1.112879523835607</v>
       </c>
       <c r="C104">
         <v>0.9740866114158983</v>
       </c>
       <c r="D104">
-        <v>1.112879523835607</v>
+        <v>0.8759351620947633</v>
       </c>
       <c r="E104">
+        <v>1.140849304772642</v>
+      </c>
+      <c r="F104">
         <v>1.137114590337144</v>
       </c>
-      <c r="F104">
-        <v>0.8759351620947633</v>
-      </c>
       <c r="G104">
-        <v>1.058942557769067</v>
+        <v>1.019706889177142</v>
       </c>
       <c r="H104">
         <v>1.055659475020849</v>
@@ -3993,22 +3999,22 @@
         <v>44355</v>
       </c>
       <c r="B105">
-        <v>1.142653137918076</v>
+        <v>1.100170678810963</v>
       </c>
       <c r="C105">
         <v>0.9784055095132485</v>
       </c>
       <c r="D105">
-        <v>1.100170678810963</v>
+        <v>0.8875467581047383</v>
       </c>
       <c r="E105">
+        <v>1.142653137918076</v>
+      </c>
+      <c r="F105">
         <v>1.128710018249928</v>
       </c>
-      <c r="F105">
-        <v>0.8875467581047383</v>
-      </c>
       <c r="G105">
-        <v>1.056318662169463</v>
+        <v>1.0210233029574</v>
       </c>
       <c r="H105">
         <v>1.049857784772055</v>
@@ -4022,22 +4028,22 @@
         <v>44356</v>
       </c>
       <c r="B106">
-        <v>1.145509207065013</v>
+        <v>1.09399397134201</v>
       </c>
       <c r="C106">
         <v>0.9735029765378779</v>
       </c>
       <c r="D106">
-        <v>1.09399397134201</v>
+        <v>0.8935473815461348</v>
       </c>
       <c r="E106">
+        <v>1.145509207065013</v>
+      </c>
+      <c r="F106">
         <v>1.127413312842186</v>
       </c>
-      <c r="F106">
-        <v>0.8935473815461348</v>
-      </c>
       <c r="G106">
-        <v>1.054708596329428</v>
+        <v>1.021377332834494</v>
       </c>
       <c r="H106">
         <v>1.051167641206136</v>
@@ -4051,22 +4057,22 @@
         <v>44357</v>
       </c>
       <c r="B107">
-        <v>1.145809845922585</v>
+        <v>1.109314616613305</v>
       </c>
       <c r="C107">
         <v>0.9686004435625073</v>
       </c>
       <c r="D107">
-        <v>1.109314616613305</v>
+        <v>0.8955735660847881</v>
       </c>
       <c r="E107">
+        <v>1.145809845922585</v>
+      </c>
+      <c r="F107">
         <v>1.169964460666603</v>
       </c>
-      <c r="F107">
-        <v>0.8955735660847881</v>
-      </c>
       <c r="G107">
-        <v>1.066337347108836</v>
+        <v>1.030887597625084</v>
       </c>
       <c r="H107">
         <v>1.062591976579641</v>
@@ -4080,22 +4086,22 @@
         <v>44358</v>
       </c>
       <c r="B108">
-        <v>1.142577978203683</v>
+        <v>1.102577486344575</v>
       </c>
       <c r="C108">
         <v>0.9613633710750554</v>
       </c>
       <c r="D108">
-        <v>1.102577486344575</v>
+        <v>0.8650249376558605</v>
       </c>
       <c r="E108">
+        <v>1.142577978203683</v>
+      </c>
+      <c r="F108">
         <v>1.182163096724618</v>
       </c>
-      <c r="F108">
-        <v>0.8650249376558605</v>
-      </c>
       <c r="G108">
-        <v>1.059306625543874</v>
+        <v>1.019910452550941</v>
       </c>
       <c r="H108">
         <v>1.056353667519487</v>
@@ -4109,22 +4115,22 @@
         <v>44362</v>
       </c>
       <c r="B109">
-        <v>1.131905298759865</v>
+        <v>1.080131333629149</v>
       </c>
       <c r="C109">
         <v>0.9424536010271973</v>
       </c>
       <c r="D109">
-        <v>1.080131333629149</v>
+        <v>0.8675966334164589</v>
       </c>
       <c r="E109">
+        <v>1.131905298759865</v>
+      </c>
+      <c r="F109">
         <v>1.177408510229565</v>
       </c>
-      <c r="F109">
-        <v>0.8675966334164589</v>
-      </c>
       <c r="G109">
-        <v>1.046510201763014</v>
+        <v>1.011183106402266</v>
       </c>
       <c r="H109">
         <v>1.046575290830534</v>
@@ -4138,22 +4144,22 @@
         <v>44363</v>
       </c>
       <c r="B110">
-        <v>1.129124389327321</v>
+        <v>1.044995072806107</v>
       </c>
       <c r="C110">
         <v>0.9430372359052176</v>
       </c>
       <c r="D110">
-        <v>1.044995072806107</v>
+        <v>0.8565305486284289</v>
       </c>
       <c r="E110">
+        <v>1.129124389327321</v>
+      </c>
+      <c r="F110">
         <v>1.10147920468735</v>
       </c>
-      <c r="F110">
-        <v>0.8565305486284289</v>
-      </c>
       <c r="G110">
-        <v>1.020187459612651</v>
+        <v>0.9886701665407275</v>
       </c>
       <c r="H110">
         <v>1.031282638434078</v>
@@ -4167,22 +4173,22 @@
         <v>44364</v>
       </c>
       <c r="B111">
-        <v>1.128072153325817</v>
+        <v>1.049654397638662</v>
       </c>
       <c r="C111">
         <v>0.9453717754172989</v>
       </c>
       <c r="D111">
-        <v>1.049654397638662</v>
+        <v>0.8651028678304241</v>
       </c>
       <c r="E111">
+        <v>1.128072153325817</v>
+      </c>
+      <c r="F111">
         <v>1.133128421861493</v>
       </c>
-      <c r="F111">
-        <v>0.8651028678304241</v>
-      </c>
       <c r="G111">
-        <v>1.028579581906254</v>
+        <v>0.9977364907094596</v>
       </c>
       <c r="H111">
         <v>1.03911664789834</v>
@@ -4196,22 +4202,22 @@
         <v>44365</v>
       </c>
       <c r="B112">
-        <v>1.122510334460729</v>
+        <v>1.05939872251729</v>
       </c>
       <c r="C112">
         <v>0.9432706898564258</v>
       </c>
       <c r="D112">
-        <v>1.05939872251729</v>
+        <v>0.8840399002493767</v>
       </c>
       <c r="E112">
+        <v>1.122510334460729</v>
+      </c>
+      <c r="F112">
         <v>1.187926231870138</v>
       </c>
-      <c r="F112">
-        <v>0.8840399002493767</v>
-      </c>
       <c r="G112">
-        <v>1.042658764364342</v>
+        <v>1.013409000630419</v>
       </c>
       <c r="H112">
         <v>1.045648653784841</v>
@@ -4225,22 +4231,22 @@
         <v>44368</v>
       </c>
       <c r="B113">
-        <v>1.121608417888012</v>
+        <v>1.068566158376641</v>
       </c>
       <c r="C113">
         <v>0.9407026963931364</v>
       </c>
       <c r="D113">
-        <v>1.068566158376641</v>
+        <v>0.9191084788029926</v>
       </c>
       <c r="E113">
+        <v>1.121608417888012</v>
+      </c>
+      <c r="F113">
         <v>1.192968975122467</v>
       </c>
-      <c r="F113">
-        <v>0.9191084788029926</v>
-      </c>
       <c r="G113">
-        <v>1.051712501589788</v>
+        <v>1.026786773162579</v>
       </c>
       <c r="H113">
         <v>1.053410416970965</v>
@@ -4254,22 +4260,22 @@
         <v>44369</v>
       </c>
       <c r="B114">
-        <v>1.125742202179632</v>
+        <v>1.08644059123514</v>
       </c>
       <c r="C114">
         <v>0.939768880588304</v>
       </c>
       <c r="D114">
-        <v>1.08644059123514</v>
+        <v>0.912562344139651</v>
       </c>
       <c r="E114">
+        <v>1.125742202179632</v>
+      </c>
+      <c r="F114">
         <v>1.193593314763231</v>
       </c>
-      <c r="F114">
-        <v>0.912562344139651</v>
-      </c>
       <c r="G114">
-        <v>1.057177962897121</v>
+        <v>1.028291544071643</v>
       </c>
       <c r="H114">
         <v>1.058532049862497</v>
@@ -4283,22 +4289,22 @@
         <v>44370</v>
       </c>
       <c r="B115">
-        <v>1.139120631341601</v>
+        <v>1.088359330647005</v>
       </c>
       <c r="C115">
         <v>0.9438543247344461</v>
       </c>
       <c r="D115">
-        <v>1.088359330647005</v>
+        <v>0.9116271820448878</v>
       </c>
       <c r="E115">
+        <v>1.139120631341601</v>
+      </c>
+      <c r="F115">
         <v>1.227211603112093</v>
       </c>
-      <c r="F115">
-        <v>0.9116271820448878</v>
-      </c>
       <c r="G115">
-        <v>1.066172721197342</v>
+        <v>1.036758110174519</v>
       </c>
       <c r="H115">
         <v>1.066410035322148</v>
@@ -4312,22 +4318,22 @@
         <v>44371</v>
       </c>
       <c r="B116">
-        <v>1.138669673055242</v>
+        <v>1.070154767667137</v>
       </c>
       <c r="C116">
         <v>0.9391852457102836</v>
       </c>
       <c r="D116">
-        <v>1.070154767667137</v>
+        <v>0.8972880299251871</v>
       </c>
       <c r="E116">
+        <v>1.138669673055242</v>
+      </c>
+      <c r="F116">
         <v>1.212563634617232</v>
       </c>
-      <c r="F116">
-        <v>0.8972880299251871</v>
-      </c>
       <c r="G116">
-        <v>1.054511934169794</v>
+        <v>1.025646347915432</v>
       </c>
       <c r="H116">
         <v>1.060900471328436</v>
@@ -4341,22 +4347,22 @@
         <v>44372</v>
       </c>
       <c r="B117">
-        <v>1.144532130777903</v>
+        <v>1.089034108704268</v>
       </c>
       <c r="C117">
         <v>0.9444379596124665</v>
       </c>
       <c r="D117">
-        <v>1.089034108704268</v>
+        <v>0.8997817955112221</v>
       </c>
       <c r="E117">
+        <v>1.144532130777903</v>
+      </c>
+      <c r="F117">
         <v>1.235616175199308</v>
       </c>
-      <c r="F117">
-        <v>0.8997817955112221</v>
-      </c>
       <c r="G117">
-        <v>1.066846836406009</v>
+        <v>1.035342714618788</v>
       </c>
       <c r="H117">
         <v>1.070094595507224</v>
@@ -4370,28 +4376,289 @@
         <v>44375</v>
       </c>
       <c r="B118">
-        <v>1.144532130777903</v>
+        <v>1.112480540305299</v>
       </c>
       <c r="C118">
-        <v>0.9444379596124665</v>
+        <v>0.9343994397105171</v>
       </c>
       <c r="D118">
-        <v>1.112480496356314</v>
+        <v>0.9050031172069826</v>
       </c>
       <c r="E118">
-        <v>1.235616175199308</v>
+        <v>1.125291243893273</v>
       </c>
       <c r="F118">
-        <v>0.8997817955112221</v>
+        <v>1.267217366247239</v>
       </c>
       <c r="G118">
-        <v>1.074584144331184</v>
+        <v>1.041384545954178</v>
       </c>
       <c r="H118">
-        <v>1.072467131869875</v>
+        <v>1.072467728686956</v>
       </c>
       <c r="I118">
-        <v>1.007765908249205</v>
+        <v>1.007765831492778</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9">
+      <c r="A119" s="2">
+        <v>44376</v>
+      </c>
+      <c r="B119">
+        <v>1.100696909300855</v>
+      </c>
+      <c r="C119">
+        <v>0.9297303606863546</v>
+      </c>
+      <c r="D119">
+        <v>0.8849750623441397</v>
+      </c>
+      <c r="E119">
+        <v>1.122209695603157</v>
+      </c>
+      <c r="F119">
+        <v>1.270194986072424</v>
+      </c>
+      <c r="G119">
+        <v>1.031961178947863</v>
+      </c>
+      <c r="H119">
+        <v>1.062557424011836</v>
+      </c>
+      <c r="I119">
+        <v>0.9960182603539622</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9">
+      <c r="A120" s="2">
+        <v>44377</v>
+      </c>
+      <c r="B120">
+        <v>1.09942673970187</v>
+      </c>
+      <c r="C120">
+        <v>0.9290299988327303</v>
+      </c>
+      <c r="D120">
+        <v>0.8979114713216958</v>
+      </c>
+      <c r="E120">
+        <v>1.127921833897031</v>
+      </c>
+      <c r="F120">
+        <v>1.303813274421285</v>
+      </c>
+      <c r="G120">
+        <v>1.042384723959564</v>
+      </c>
+      <c r="H120">
+        <v>1.069273186736212</v>
+      </c>
+      <c r="I120">
+        <v>1.002446611107806</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9">
+      <c r="A121" s="2">
+        <v>44378</v>
+      </c>
+      <c r="B121">
+        <v>1.123290847801254</v>
+      </c>
+      <c r="C121">
+        <v>0.9489903116610248</v>
+      </c>
+      <c r="D121">
+        <v>0.859569825436409</v>
+      </c>
+      <c r="E121">
+        <v>1.135813603908305</v>
+      </c>
+      <c r="F121">
+        <v>1.286667947363366</v>
+      </c>
+      <c r="G121">
+        <v>1.035655295462428</v>
+      </c>
+      <c r="H121">
+        <v>1.054900889100393</v>
+      </c>
+      <c r="I121">
+        <v>1.003525038905914</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9">
+      <c r="A122" s="2">
+        <v>44379</v>
+      </c>
+      <c r="B122">
+        <v>1.069605932749586</v>
+      </c>
+      <c r="C122">
+        <v>0.9320649001984358</v>
+      </c>
+      <c r="D122">
+        <v>0.8307356608478804</v>
+      </c>
+      <c r="E122">
+        <v>1.124163848177377</v>
+      </c>
+      <c r="F122">
+        <v>1.282105465373163</v>
+      </c>
+      <c r="G122">
+        <v>1.011461246416804</v>
+      </c>
+      <c r="H122">
+        <v>1.045694200351494</v>
+      </c>
+      <c r="I122">
+        <v>0.975021539772302</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9">
+      <c r="A123" s="2">
+        <v>44382</v>
+      </c>
+      <c r="B123">
+        <v>1.05748509583728</v>
+      </c>
+      <c r="C123">
+        <v>0.9278627290766897</v>
+      </c>
+      <c r="D123">
+        <v>0.8346321695760599</v>
+      </c>
+      <c r="E123">
+        <v>1.121007140172867</v>
+      </c>
+      <c r="F123">
+        <v>1.317500720391893</v>
+      </c>
+      <c r="G123">
+        <v>1.01529154318866</v>
+      </c>
+      <c r="H123">
+        <v>1.054011945765033</v>
+      </c>
+      <c r="I123">
+        <v>0.9759176710564946</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9">
+      <c r="A124" s="2">
+        <v>44383</v>
+      </c>
+      <c r="B124">
+        <v>1.020819439655429</v>
+      </c>
+      <c r="C124">
+        <v>0.9417532391735729</v>
+      </c>
+      <c r="D124">
+        <v>0.8402431421446385</v>
+      </c>
+      <c r="E124">
+        <v>1.125140924464487</v>
+      </c>
+      <c r="F124">
+        <v>1.319085582556911</v>
+      </c>
+      <c r="G124">
+        <v>1.014214965967192</v>
+      </c>
+      <c r="H124">
+        <v>1.053774789504186</v>
+      </c>
+      <c r="I124">
+        <v>0.9754014840855144</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9">
+      <c r="A125" s="2">
+        <v>44384</v>
+      </c>
+      <c r="B125">
+        <v>1.052525130651907</v>
+      </c>
+      <c r="C125">
+        <v>0.9347496206373292</v>
+      </c>
+      <c r="D125">
+        <v>0.8637001246882794</v>
+      </c>
+      <c r="E125">
+        <v>1.122510334460729</v>
+      </c>
+      <c r="F125">
+        <v>1.392997790798194</v>
+      </c>
+      <c r="G125">
+        <v>1.037916589534025</v>
+      </c>
+      <c r="H125">
+        <v>1.062354820318795</v>
+      </c>
+      <c r="I125">
+        <v>0.9864141124366519</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9">
+      <c r="A126" s="2">
+        <v>44385</v>
+      </c>
+      <c r="B126">
+        <v>1.036187901421783</v>
+      </c>
+      <c r="C126">
+        <v>0.928563090930314</v>
+      </c>
+      <c r="D126">
+        <v>0.8980673316708231</v>
+      </c>
+      <c r="E126">
+        <v>1.102517850432168</v>
+      </c>
+      <c r="F126">
+        <v>1.415810200749208</v>
+      </c>
+      <c r="G126">
+        <v>1.045894016596155</v>
+      </c>
+      <c r="H126">
+        <v>1.059923576002299</v>
+      </c>
+      <c r="I126">
+        <v>0.9763916419926737</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9">
+      <c r="A127" s="2">
+        <v>44386</v>
+      </c>
+      <c r="B127">
+        <v>1.037749189093626</v>
+      </c>
+      <c r="C127">
+        <v>0.9310143574179992</v>
+      </c>
+      <c r="D127">
+        <v>0.8907418952618454</v>
+      </c>
+      <c r="E127">
+        <v>1.113340849304773</v>
+      </c>
+      <c r="F127">
+        <v>1.439919316107963</v>
+      </c>
+      <c r="G127">
+        <v>1.049922555636487</v>
+      </c>
+      <c r="H127">
+        <v>1.068701498796157</v>
+      </c>
+      <c r="I127">
+        <v>0.9727802521064841</v>
       </c>
     </row>
   </sheetData>
@@ -4503,18 +4770,18 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M6"/>
+  <dimension ref="A1:L6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:12">
       <c r="A1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>38</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>39</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>9</v>
@@ -4546,213 +4813,195 @@
       <c r="L1" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="M1" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13">
+    </row>
+    <row r="2" spans="1:12">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I2">
-        <v>0.17</v>
+        <v>0.33</v>
       </c>
       <c r="J2">
-        <v>5.88</v>
+        <v>10.78719997406006</v>
       </c>
       <c r="K2">
-        <v>0.67</v>
+        <v>59.80680084228516</v>
       </c>
       <c r="L2">
-        <v>8.09</v>
-      </c>
-      <c r="M2">
-        <v>-0.35</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+        <v>49.5421</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I3">
         <v>0.17</v>
       </c>
       <c r="J3">
-        <v>8.18</v>
+        <v>1.028499960899353</v>
       </c>
       <c r="K3">
-        <v>1.04</v>
+        <v>8.084500312805176</v>
       </c>
       <c r="L3">
-        <v>10.88</v>
-      </c>
-      <c r="M3">
-        <v>-12.94</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+        <v>-12.9374</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I4">
-        <v>0.33</v>
+        <v>0.165</v>
       </c>
       <c r="J4">
-        <v>63.98</v>
+        <v>3.740200042724609</v>
       </c>
       <c r="K4">
-        <v>11.5</v>
+        <v>66.89820098876953</v>
       </c>
       <c r="L4">
-        <v>25.06</v>
-      </c>
-      <c r="M4">
-        <v>49.54</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+        <v>27.0909</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I5">
-        <v>0.165</v>
+        <v>0.17</v>
       </c>
       <c r="J5">
-        <v>133.48</v>
+        <v>0.6642000079154968</v>
       </c>
       <c r="K5">
-        <v>9.199999999999999</v>
+        <v>5.72819995880127</v>
       </c>
       <c r="L5">
-        <v>4.83</v>
-      </c>
-      <c r="M5">
-        <v>38.77</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>-0.3494</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I6">
         <v>0.165</v>
       </c>
       <c r="J6">
-        <v>67.98</v>
+        <v>10.4798002243042</v>
       </c>
       <c r="K6">
-        <v>3.81</v>
+        <v>152.8901977539062</v>
       </c>
       <c r="L6">
-        <v>1.45</v>
-      </c>
-      <c r="M6">
-        <v>27.09</v>
+        <v>38.7678</v>
       </c>
     </row>
   </sheetData>
@@ -4770,19 +5019,19 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>78</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -4790,19 +5039,19 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -4810,19 +5059,19 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -4830,19 +5079,19 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F4" t="s">
-        <v>64</v>
+        <v>161</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -4850,16 +5099,16 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C5" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E5" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F5" t="s">
         <v>162</v>
@@ -4870,16 +5119,16 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D6" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E6" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F6" t="s">
         <v>163</v>
@@ -4890,16 +5139,16 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C7" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D7" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E7" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F7" t="s">
         <v>164</v>
@@ -4910,16 +5159,16 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C8" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D8" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E8" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F8" t="s">
         <v>165</v>
@@ -4930,16 +5179,16 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C9" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D9" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E9" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F9" t="s">
         <v>166</v>
@@ -4950,16 +5199,16 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C10" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D10" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E10" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F10" t="s">
         <v>167</v>
@@ -4970,16 +5219,16 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C11" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D11" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E11" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F11" t="s">
         <v>168</v>
@@ -4990,16 +5239,16 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C12" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D12" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E12" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F12" t="s">
         <v>169</v>
@@ -5010,16 +5259,16 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C13" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D13" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E13" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F13" t="s">
         <v>170</v>
@@ -5030,16 +5279,16 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C14" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D14" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E14" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F14" t="s">
         <v>171</v>
@@ -5050,16 +5299,16 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C15" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D15" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E15" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F15" t="s">
         <v>172</v>
@@ -5070,16 +5319,16 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C16" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D16" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E16" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F16" t="s">
         <v>173</v>
@@ -5090,16 +5339,16 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C17" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D17" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E17" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F17" t="s">
         <v>174</v>
@@ -5110,16 +5359,16 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C18" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D18" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E18" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F18" t="s">
         <v>175</v>
@@ -5130,16 +5379,16 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C19" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D19" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E19" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F19" t="s">
         <v>176</v>
@@ -5150,16 +5399,16 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C20" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D20" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E20" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F20" t="s">
         <v>177</v>
@@ -5170,16 +5419,16 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C21" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D21" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E21" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F21" t="s">
         <v>178</v>
@@ -5192,7 +5441,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5219,7 +5468,7 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B3" t="s">
         <v>182</v>
@@ -5241,10 +5490,10 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>184</v>
+        <v>149</v>
       </c>
       <c r="C5" t="s">
         <v>191</v>
@@ -5252,10 +5501,10 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C6" t="s">
         <v>192</v>
@@ -5263,10 +5512,10 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B7" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C7" t="s">
         <v>193</v>
@@ -5274,13 +5523,35 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B8" t="s">
-        <v>187</v>
+        <v>146</v>
       </c>
       <c r="C8" t="s">
         <v>194</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>186</v>
+      </c>
+      <c r="C9" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="1">
+        <v>0</v>
+      </c>
+      <c r="B10" t="s">
+        <v>187</v>
+      </c>
+      <c r="C10" t="s">
+        <v>196</v>
       </c>
     </row>
   </sheetData>
